--- a/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.70831892987008</v>
+        <v>17.70831892986995</v>
       </c>
       <c r="C2">
-        <v>22.10982109210524</v>
+        <v>22.10982109210494</v>
       </c>
       <c r="D2">
-        <v>7.188393811604286</v>
+        <v>7.188393811604224</v>
       </c>
       <c r="E2">
-        <v>5.639296624117017</v>
+        <v>5.639296624116931</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.51778494052432</v>
+        <v>64.5177849405232</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.6616030965154</v>
+        <v>18.66160309651521</v>
       </c>
       <c r="K2">
-        <v>11.10396683224996</v>
+        <v>11.10396683224994</v>
       </c>
       <c r="L2">
-        <v>14.69619989540518</v>
+        <v>14.69619989540511</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,13 +453,13 @@
         <v>16.26867349285809</v>
       </c>
       <c r="C3">
-        <v>20.44607477330815</v>
+        <v>20.44607477330828</v>
       </c>
       <c r="D3">
-        <v>6.648518467763011</v>
+        <v>6.648518467762949</v>
       </c>
       <c r="E3">
-        <v>5.503612450588957</v>
+        <v>5.503612450588881</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.49015368085335</v>
+        <v>60.4901536808534</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.19817473116236</v>
+        <v>17.1981747311624</v>
       </c>
       <c r="K3">
-        <v>10.50730851397746</v>
+        <v>10.50730851397744</v>
       </c>
       <c r="L3">
         <v>13.58566444607429</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.35912357937532</v>
+        <v>15.35912357937533</v>
       </c>
       <c r="C4">
-        <v>19.38707873151973</v>
+        <v>19.38707873151962</v>
       </c>
       <c r="D4">
-        <v>6.303893744407669</v>
+        <v>6.303893744407675</v>
       </c>
       <c r="E4">
-        <v>5.422312864202131</v>
+        <v>5.422312864202133</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.94699223564965</v>
+        <v>57.94699223564944</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.26870740710989</v>
+        <v>16.26870740710984</v>
       </c>
       <c r="K4">
-        <v>10.1374221403516</v>
+        <v>10.13742214035158</v>
       </c>
       <c r="L4">
-        <v>12.87827509373787</v>
+        <v>12.87827509373782</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.9815214428458</v>
+        <v>14.98152144284569</v>
       </c>
       <c r="C5">
-        <v>18.95608530827684</v>
+        <v>18.95608530827677</v>
       </c>
       <c r="D5">
-        <v>6.180066693910784</v>
+        <v>6.180066693910737</v>
       </c>
       <c r="E5">
-        <v>5.389658417573416</v>
+        <v>5.389658417573298</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.89248853272598</v>
+        <v>56.89248853272574</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.88165789465199</v>
+        <v>15.88165789465196</v>
       </c>
       <c r="K5">
-        <v>9.985816273622946</v>
+        <v>9.985816273622897</v>
       </c>
       <c r="L5">
-        <v>12.58322378692154</v>
+        <v>12.58322378692147</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.91838761329803</v>
+        <v>14.9183876132981</v>
       </c>
       <c r="C6">
-        <v>18.88527966749734</v>
+        <v>18.88527966749752</v>
       </c>
       <c r="D6">
-        <v>6.159908874389671</v>
+        <v>6.15990887438964</v>
       </c>
       <c r="E6">
-        <v>5.384264165708882</v>
+        <v>5.38426416570892</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.71628382060594</v>
+        <v>56.71628382060644</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.81687472964949</v>
+        <v>15.81687472964962</v>
       </c>
       <c r="K6">
-        <v>9.960590841160663</v>
+        <v>9.960590841160718</v>
       </c>
       <c r="L6">
-        <v>12.53381106814634</v>
+        <v>12.53381106814645</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.35405987284224</v>
+        <v>15.35405987284225</v>
       </c>
       <c r="C7">
-        <v>19.38116619606957</v>
+        <v>19.38116619606961</v>
       </c>
       <c r="D7">
-        <v>6.301967227075489</v>
+        <v>6.301967227075439</v>
       </c>
       <c r="E7">
-        <v>5.421870582849221</v>
+        <v>5.421870582849339</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.93284475560542</v>
+        <v>57.9328447556053</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.26352168586257</v>
+        <v>16.26352168586258</v>
       </c>
       <c r="K7">
-        <v>10.1353810135524</v>
+        <v>10.13538101355239</v>
       </c>
       <c r="L7">
-        <v>12.87432385242294</v>
+        <v>12.87432385242291</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.21690243348899</v>
+        <v>17.21690243348904</v>
       </c>
       <c r="C8">
-        <v>21.54364126981918</v>
+        <v>21.54364126981911</v>
       </c>
       <c r="D8">
-        <v>7.004866082084741</v>
+        <v>7.004866082084685</v>
       </c>
       <c r="E8">
-        <v>5.592074869850231</v>
+        <v>5.592074869850189</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.14323561136406</v>
+        <v>63.14323561136431</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>18.16309877761931</v>
       </c>
       <c r="K8">
-        <v>10.89896535161451</v>
+        <v>10.89896535161449</v>
       </c>
       <c r="L8">
         <v>14.3183462092889</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.69579598179212</v>
+        <v>20.69579598179187</v>
       </c>
       <c r="C9">
-        <v>25.51216515160484</v>
+        <v>25.51216515160491</v>
       </c>
       <c r="D9">
-        <v>8.287734731673059</v>
+        <v>8.287734731673083</v>
       </c>
       <c r="E9">
-        <v>5.943666216377196</v>
+        <v>5.943666216377121</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>72.8426674042617</v>
+        <v>72.84266740426133</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21.67052891628637</v>
+        <v>21.67052891628619</v>
       </c>
       <c r="K9">
         <v>12.37074018253759</v>
       </c>
       <c r="L9">
-        <v>16.96722965710947</v>
+        <v>16.96722965710939</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>23.19729621694905</v>
       </c>
       <c r="C10">
-        <v>28.3068724225261</v>
+        <v>28.30687242252625</v>
       </c>
       <c r="D10">
-        <v>9.186976248790206</v>
+        <v>9.186976248790264</v>
       </c>
       <c r="E10">
-        <v>6.216557644140408</v>
+        <v>6.216557644140413</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79.73514426022955</v>
+        <v>79.73514426023063</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24.16292153871004</v>
+        <v>24.16292153871012</v>
       </c>
       <c r="K10">
-        <v>13.44524943884045</v>
+        <v>13.44524943884046</v>
       </c>
       <c r="L10">
-        <v>18.83555995502865</v>
+        <v>18.83555995502867</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.33942031315117</v>
+        <v>24.3394203131511</v>
       </c>
       <c r="C11">
-        <v>29.5658612422817</v>
+        <v>29.56586124228178</v>
       </c>
       <c r="D11">
-        <v>9.59111780131245</v>
+        <v>9.591117801312556</v>
       </c>
       <c r="E11">
-        <v>6.345145425673905</v>
+        <v>6.345145425673886</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>82.84831275496767</v>
+        <v>82.84831275496752</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>25.29300626140997</v>
+        <v>25.29300626140999</v>
       </c>
       <c r="K11">
-        <v>13.93643486695867</v>
+        <v>13.93643486695863</v>
       </c>
       <c r="L11">
-        <v>19.67867926227781</v>
+        <v>19.67867926227773</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.77432527335545</v>
+        <v>24.77432527335548</v>
       </c>
       <c r="C12">
-        <v>30.04240727885393</v>
+        <v>30.04240727885403</v>
       </c>
       <c r="D12">
-        <v>9.743943607929603</v>
+        <v>9.743943607929596</v>
       </c>
       <c r="E12">
-        <v>6.394632730034165</v>
+        <v>6.394632730034163</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.0273450434224</v>
+        <v>84.02734504342236</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.72204842755585</v>
+        <v>25.72204842755592</v>
       </c>
       <c r="K12">
         <v>14.12327327074911</v>
       </c>
       <c r="L12">
-        <v>19.99809500331819</v>
+        <v>19.99809500331816</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.6805191756581</v>
+        <v>24.68051917565819</v>
       </c>
       <c r="C13">
-        <v>29.93975379736631</v>
+        <v>29.93975379736636</v>
       </c>
       <c r="D13">
-        <v>9.711029967565169</v>
+        <v>9.711029967565112</v>
       </c>
       <c r="E13">
-        <v>6.383936415098679</v>
+        <v>6.383936415098658</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>83.77334837907277</v>
+        <v>83.77334837907247</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.62956626073874</v>
+        <v>25.62956626073877</v>
       </c>
       <c r="K13">
-        <v>14.08298721152458</v>
+        <v>14.08298721152452</v>
       </c>
       <c r="L13">
-        <v>19.92927538769412</v>
+        <v>19.92927538769408</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.37513973949826</v>
+        <v>24.37513973949791</v>
       </c>
       <c r="C14">
-        <v>29.60506048770727</v>
+        <v>29.60506048770722</v>
       </c>
       <c r="D14">
-        <v>9.603691831170762</v>
+        <v>9.603691831170821</v>
       </c>
       <c r="E14">
-        <v>6.349199793132783</v>
+        <v>6.349199793132719</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>82.94528669724373</v>
+        <v>82.94528669724379</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.32827064544458</v>
+        <v>25.32827064544433</v>
       </c>
       <c r="K14">
-        <v>13.95178592022276</v>
+        <v>13.95178592022272</v>
       </c>
       <c r="L14">
-        <v>19.70494733784333</v>
+        <v>19.70494733784318</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.1884619724107</v>
+        <v>24.18846197241087</v>
       </c>
       <c r="C15">
-        <v>29.40007858749941</v>
+        <v>29.40007858749954</v>
       </c>
       <c r="D15">
-        <v>9.53793328486568</v>
+        <v>9.537933284865725</v>
       </c>
       <c r="E15">
-        <v>6.328031465395023</v>
+        <v>6.328031465395057</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82.43821050637209</v>
+        <v>82.43821050637276</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>25.14391860935014</v>
+        <v>25.14391860935034</v>
       </c>
       <c r="K15">
-        <v>13.87154808370495</v>
+        <v>13.87154808370502</v>
       </c>
       <c r="L15">
-        <v>19.5675973722134</v>
+        <v>19.56759737221356</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12288300312733</v>
+        <v>23.12288300312757</v>
       </c>
       <c r="C16">
-        <v>28.22447062002077</v>
+        <v>28.22447062002082</v>
       </c>
       <c r="D16">
-        <v>9.160504831257848</v>
+        <v>9.160504831257782</v>
       </c>
       <c r="E16">
-        <v>6.208255695809949</v>
+        <v>6.208255695809999</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79.53150681373742</v>
+        <v>79.53150681373837</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24.08912305790395</v>
+        <v>24.0891230579041</v>
       </c>
       <c r="K16">
-        <v>13.41323564871081</v>
+        <v>13.41323564871082</v>
       </c>
       <c r="L16">
-        <v>18.78041257113628</v>
+        <v>18.78041257113637</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.47139087043394</v>
+        <v>22.471390870434</v>
       </c>
       <c r="C17">
-        <v>27.50109954210713</v>
+        <v>27.50109954210712</v>
       </c>
       <c r="D17">
-        <v>8.928015298781169</v>
+        <v>8.928015298781125</v>
       </c>
       <c r="E17">
         <v>6.136011127487436</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>77.7447160323143</v>
+        <v>77.74471603231434</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.44212022326041</v>
+        <v>23.44212022326053</v>
       </c>
       <c r="K17">
-        <v>13.13298605705337</v>
+        <v>13.13298605705338</v>
       </c>
       <c r="L17">
-        <v>18.29646861629412</v>
+        <v>18.29646861629423</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.09693062512123</v>
+        <v>22.09693062512112</v>
       </c>
       <c r="C18">
-        <v>27.08375928474921</v>
+        <v>27.08375928474923</v>
       </c>
       <c r="D18">
-        <v>8.793793611983592</v>
+        <v>8.793793611983551</v>
       </c>
       <c r="E18">
-        <v>6.094864945094987</v>
+        <v>6.094864945094996</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76.71465650176323</v>
+        <v>76.71465650176282</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23.06951164075442</v>
+        <v>23.0695116407543</v>
       </c>
       <c r="K18">
-        <v>12.97198010209078</v>
+        <v>12.97198010209074</v>
       </c>
       <c r="L18">
-        <v>18.01739567526433</v>
+        <v>18.01739567526424</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.9701423738599</v>
+        <v>21.97014237385998</v>
       </c>
       <c r="C19">
-        <v>26.94219480453145</v>
+        <v>26.94219480453154</v>
       </c>
       <c r="D19">
-        <v>8.748249577826716</v>
+        <v>8.748249577826767</v>
       </c>
       <c r="E19">
-        <v>6.080999538536014</v>
+        <v>6.08099953853594</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.36540716105181</v>
+        <v>76.36540716105171</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.94322915793168</v>
+        <v>22.9432291579317</v>
       </c>
       <c r="K19">
         <v>12.91748590390837</v>
       </c>
       <c r="L19">
-        <v>17.92275301057467</v>
+        <v>17.92275301057469</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.54070481412774</v>
+        <v>22.54070481412787</v>
       </c>
       <c r="C20">
-        <v>27.57822572524569</v>
+        <v>27.57822572524584</v>
       </c>
       <c r="D20">
-        <v>8.952812768365515</v>
+        <v>8.952812768365447</v>
       </c>
       <c r="E20">
-        <v>6.143658604466803</v>
+        <v>6.143658604466771</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>77.93514456606903</v>
+        <v>77.93514456606911</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.51103292353921</v>
+        <v>23.51103292353932</v>
       </c>
       <c r="K20">
-        <v>13.16279680126297</v>
+        <v>13.16279680126295</v>
       </c>
       <c r="L20">
-        <v>18.34805273274702</v>
+        <v>18.3480527327471</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.46475473969781</v>
+        <v>24.46475473969813</v>
       </c>
       <c r="C21">
-        <v>29.70335884573458</v>
+        <v>29.70335884573486</v>
       </c>
       <c r="D21">
-        <v>9.635220816684193</v>
+        <v>9.6352208166842</v>
       </c>
       <c r="E21">
-        <v>6.35937974273455</v>
+        <v>6.35937974273457</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.18847274746085</v>
+        <v>83.18847274746133</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25.41672313223744</v>
+        <v>25.41672313223771</v>
       </c>
       <c r="K21">
-        <v>13.99029535998938</v>
+        <v>13.99029535998939</v>
       </c>
       <c r="L21">
-        <v>19.77082348873866</v>
+        <v>19.77082348873881</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.73752305914187</v>
+        <v>25.7375230591417</v>
       </c>
       <c r="C22">
-        <v>31.09214911687324</v>
+        <v>31.0921491168734</v>
       </c>
       <c r="D22">
         <v>10.08030782555145</v>
       </c>
       <c r="E22">
-        <v>6.505107245997086</v>
+        <v>6.505107245997112</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>86.62504436277844</v>
+        <v>86.6250443627786</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>26.66977042871042</v>
+        <v>26.66977042871038</v>
       </c>
       <c r="K22">
-        <v>14.59768728798484</v>
+        <v>14.59768728798482</v>
       </c>
       <c r="L22">
-        <v>20.70230317677691</v>
+        <v>20.70230317677682</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.05607919850324</v>
+        <v>25.05607919850318</v>
       </c>
       <c r="C23">
-        <v>30.35028937740471</v>
+        <v>30.35028937740474</v>
       </c>
       <c r="D23">
-        <v>9.842637113431996</v>
+        <v>9.842637113431987</v>
       </c>
       <c r="E23">
-        <v>6.426830118088249</v>
+        <v>6.42683011808821</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>84.789189160258</v>
+        <v>84.78918916025808</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>25.99962989711534</v>
+        <v>25.99962989711527</v>
       </c>
       <c r="K23">
         <v>14.25937835703703</v>
       </c>
       <c r="L23">
-        <v>20.20454781170485</v>
+        <v>20.20454781170481</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.50936782485698</v>
+        <v>22.50936782485699</v>
       </c>
       <c r="C24">
-        <v>27.54336165167624</v>
+        <v>27.54336165167631</v>
       </c>
       <c r="D24">
-        <v>8.941603613152338</v>
+        <v>8.941603613152287</v>
       </c>
       <c r="E24">
-        <v>6.140199981914184</v>
+        <v>6.140199981914162</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>77.84906081520494</v>
+        <v>77.84906081520441</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.47987959609173</v>
+        <v>23.47987959609171</v>
       </c>
       <c r="K24">
-        <v>13.14931904574853</v>
+        <v>13.14931904574849</v>
       </c>
       <c r="L24">
-        <v>18.32473427248202</v>
+        <v>18.324734272482</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>19.76866926460433</v>
       </c>
       <c r="C25">
-        <v>24.46368317210239</v>
+        <v>24.46368317210225</v>
       </c>
       <c r="D25">
-        <v>7.949544836914085</v>
+        <v>7.949544836914185</v>
       </c>
       <c r="E25">
-        <v>5.846328319685482</v>
+        <v>5.846328319685428</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.2673228154584</v>
+        <v>70.26732281545826</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20.74061236865131</v>
+        <v>20.74061236865122</v>
       </c>
       <c r="K25">
-        <v>11.97471789123429</v>
+        <v>11.97471789123427</v>
       </c>
       <c r="L25">
-        <v>16.26714103707994</v>
+        <v>16.26714103707991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.70831892986995</v>
+        <v>17.70831892987008</v>
       </c>
       <c r="C2">
-        <v>22.10982109210494</v>
+        <v>22.10982109210524</v>
       </c>
       <c r="D2">
-        <v>7.188393811604224</v>
+        <v>7.188393811604286</v>
       </c>
       <c r="E2">
-        <v>5.639296624116931</v>
+        <v>5.639296624117017</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.5177849405232</v>
+        <v>64.51778494052432</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.66160309651521</v>
+        <v>18.6616030965154</v>
       </c>
       <c r="K2">
-        <v>11.10396683224994</v>
+        <v>11.10396683224996</v>
       </c>
       <c r="L2">
-        <v>14.69619989540511</v>
+        <v>14.69619989540518</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,13 +453,13 @@
         <v>16.26867349285809</v>
       </c>
       <c r="C3">
-        <v>20.44607477330828</v>
+        <v>20.44607477330815</v>
       </c>
       <c r="D3">
-        <v>6.648518467762949</v>
+        <v>6.648518467763011</v>
       </c>
       <c r="E3">
-        <v>5.503612450588881</v>
+        <v>5.503612450588957</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.4901536808534</v>
+        <v>60.49015368085335</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.1981747311624</v>
+        <v>17.19817473116236</v>
       </c>
       <c r="K3">
-        <v>10.50730851397744</v>
+        <v>10.50730851397746</v>
       </c>
       <c r="L3">
         <v>13.58566444607429</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.35912357937533</v>
+        <v>15.35912357937532</v>
       </c>
       <c r="C4">
-        <v>19.38707873151962</v>
+        <v>19.38707873151973</v>
       </c>
       <c r="D4">
-        <v>6.303893744407675</v>
+        <v>6.303893744407669</v>
       </c>
       <c r="E4">
-        <v>5.422312864202133</v>
+        <v>5.422312864202131</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.94699223564944</v>
+        <v>57.94699223564965</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.26870740710984</v>
+        <v>16.26870740710989</v>
       </c>
       <c r="K4">
-        <v>10.13742214035158</v>
+        <v>10.1374221403516</v>
       </c>
       <c r="L4">
-        <v>12.87827509373782</v>
+        <v>12.87827509373787</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.98152144284569</v>
+        <v>14.9815214428458</v>
       </c>
       <c r="C5">
-        <v>18.95608530827677</v>
+        <v>18.95608530827684</v>
       </c>
       <c r="D5">
-        <v>6.180066693910737</v>
+        <v>6.180066693910784</v>
       </c>
       <c r="E5">
-        <v>5.389658417573298</v>
+        <v>5.389658417573416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.89248853272574</v>
+        <v>56.89248853272598</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.88165789465196</v>
+        <v>15.88165789465199</v>
       </c>
       <c r="K5">
-        <v>9.985816273622897</v>
+        <v>9.985816273622946</v>
       </c>
       <c r="L5">
-        <v>12.58322378692147</v>
+        <v>12.58322378692154</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.9183876132981</v>
+        <v>14.91838761329803</v>
       </c>
       <c r="C6">
-        <v>18.88527966749752</v>
+        <v>18.88527966749734</v>
       </c>
       <c r="D6">
-        <v>6.15990887438964</v>
+        <v>6.159908874389671</v>
       </c>
       <c r="E6">
-        <v>5.38426416570892</v>
+        <v>5.384264165708882</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.71628382060644</v>
+        <v>56.71628382060594</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.81687472964962</v>
+        <v>15.81687472964949</v>
       </c>
       <c r="K6">
-        <v>9.960590841160718</v>
+        <v>9.960590841160663</v>
       </c>
       <c r="L6">
-        <v>12.53381106814645</v>
+        <v>12.53381106814634</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.35405987284225</v>
+        <v>15.35405987284224</v>
       </c>
       <c r="C7">
-        <v>19.38116619606961</v>
+        <v>19.38116619606957</v>
       </c>
       <c r="D7">
-        <v>6.301967227075439</v>
+        <v>6.301967227075489</v>
       </c>
       <c r="E7">
-        <v>5.421870582849339</v>
+        <v>5.421870582849221</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.9328447556053</v>
+        <v>57.93284475560542</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.26352168586258</v>
+        <v>16.26352168586257</v>
       </c>
       <c r="K7">
-        <v>10.13538101355239</v>
+        <v>10.1353810135524</v>
       </c>
       <c r="L7">
-        <v>12.87432385242291</v>
+        <v>12.87432385242294</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.21690243348904</v>
+        <v>17.21690243348899</v>
       </c>
       <c r="C8">
-        <v>21.54364126981911</v>
+        <v>21.54364126981918</v>
       </c>
       <c r="D8">
-        <v>7.004866082084685</v>
+        <v>7.004866082084741</v>
       </c>
       <c r="E8">
-        <v>5.592074869850189</v>
+        <v>5.592074869850231</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.14323561136431</v>
+        <v>63.14323561136406</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>18.16309877761931</v>
       </c>
       <c r="K8">
-        <v>10.89896535161449</v>
+        <v>10.89896535161451</v>
       </c>
       <c r="L8">
         <v>14.3183462092889</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.69579598179187</v>
+        <v>20.69579598179212</v>
       </c>
       <c r="C9">
-        <v>25.51216515160491</v>
+        <v>25.51216515160484</v>
       </c>
       <c r="D9">
-        <v>8.287734731673083</v>
+        <v>8.287734731673059</v>
       </c>
       <c r="E9">
-        <v>5.943666216377121</v>
+        <v>5.943666216377196</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>72.84266740426133</v>
+        <v>72.8426674042617</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21.67052891628619</v>
+        <v>21.67052891628637</v>
       </c>
       <c r="K9">
         <v>12.37074018253759</v>
       </c>
       <c r="L9">
-        <v>16.96722965710939</v>
+        <v>16.96722965710947</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>23.19729621694905</v>
       </c>
       <c r="C10">
-        <v>28.30687242252625</v>
+        <v>28.3068724225261</v>
       </c>
       <c r="D10">
-        <v>9.186976248790264</v>
+        <v>9.186976248790206</v>
       </c>
       <c r="E10">
-        <v>6.216557644140413</v>
+        <v>6.216557644140408</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79.73514426023063</v>
+        <v>79.73514426022955</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24.16292153871012</v>
+        <v>24.16292153871004</v>
       </c>
       <c r="K10">
-        <v>13.44524943884046</v>
+        <v>13.44524943884045</v>
       </c>
       <c r="L10">
-        <v>18.83555995502867</v>
+        <v>18.83555995502865</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.3394203131511</v>
+        <v>24.33942031315117</v>
       </c>
       <c r="C11">
-        <v>29.56586124228178</v>
+        <v>29.5658612422817</v>
       </c>
       <c r="D11">
-        <v>9.591117801312556</v>
+        <v>9.59111780131245</v>
       </c>
       <c r="E11">
-        <v>6.345145425673886</v>
+        <v>6.345145425673905</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>82.84831275496752</v>
+        <v>82.84831275496767</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>25.29300626140999</v>
+        <v>25.29300626140997</v>
       </c>
       <c r="K11">
-        <v>13.93643486695863</v>
+        <v>13.93643486695867</v>
       </c>
       <c r="L11">
-        <v>19.67867926227773</v>
+        <v>19.67867926227781</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.77432527335548</v>
+        <v>24.77432527335545</v>
       </c>
       <c r="C12">
-        <v>30.04240727885403</v>
+        <v>30.04240727885393</v>
       </c>
       <c r="D12">
-        <v>9.743943607929596</v>
+        <v>9.743943607929603</v>
       </c>
       <c r="E12">
-        <v>6.394632730034163</v>
+        <v>6.394632730034165</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.02734504342236</v>
+        <v>84.0273450434224</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.72204842755592</v>
+        <v>25.72204842755585</v>
       </c>
       <c r="K12">
         <v>14.12327327074911</v>
       </c>
       <c r="L12">
-        <v>19.99809500331816</v>
+        <v>19.99809500331819</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.68051917565819</v>
+        <v>24.6805191756581</v>
       </c>
       <c r="C13">
-        <v>29.93975379736636</v>
+        <v>29.93975379736631</v>
       </c>
       <c r="D13">
-        <v>9.711029967565112</v>
+        <v>9.711029967565169</v>
       </c>
       <c r="E13">
-        <v>6.383936415098658</v>
+        <v>6.383936415098679</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>83.77334837907247</v>
+        <v>83.77334837907277</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.62956626073877</v>
+        <v>25.62956626073874</v>
       </c>
       <c r="K13">
-        <v>14.08298721152452</v>
+        <v>14.08298721152458</v>
       </c>
       <c r="L13">
-        <v>19.92927538769408</v>
+        <v>19.92927538769412</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.37513973949791</v>
+        <v>24.37513973949826</v>
       </c>
       <c r="C14">
-        <v>29.60506048770722</v>
+        <v>29.60506048770727</v>
       </c>
       <c r="D14">
-        <v>9.603691831170821</v>
+        <v>9.603691831170762</v>
       </c>
       <c r="E14">
-        <v>6.349199793132719</v>
+        <v>6.349199793132783</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>82.94528669724379</v>
+        <v>82.94528669724373</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.32827064544433</v>
+        <v>25.32827064544458</v>
       </c>
       <c r="K14">
-        <v>13.95178592022272</v>
+        <v>13.95178592022276</v>
       </c>
       <c r="L14">
-        <v>19.70494733784318</v>
+        <v>19.70494733784333</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.18846197241087</v>
+        <v>24.1884619724107</v>
       </c>
       <c r="C15">
-        <v>29.40007858749954</v>
+        <v>29.40007858749941</v>
       </c>
       <c r="D15">
-        <v>9.537933284865725</v>
+        <v>9.53793328486568</v>
       </c>
       <c r="E15">
-        <v>6.328031465395057</v>
+        <v>6.328031465395023</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82.43821050637276</v>
+        <v>82.43821050637209</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>25.14391860935034</v>
+        <v>25.14391860935014</v>
       </c>
       <c r="K15">
-        <v>13.87154808370502</v>
+        <v>13.87154808370495</v>
       </c>
       <c r="L15">
-        <v>19.56759737221356</v>
+        <v>19.5675973722134</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12288300312757</v>
+        <v>23.12288300312733</v>
       </c>
       <c r="C16">
-        <v>28.22447062002082</v>
+        <v>28.22447062002077</v>
       </c>
       <c r="D16">
-        <v>9.160504831257782</v>
+        <v>9.160504831257848</v>
       </c>
       <c r="E16">
-        <v>6.208255695809999</v>
+        <v>6.208255695809949</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79.53150681373837</v>
+        <v>79.53150681373742</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24.0891230579041</v>
+        <v>24.08912305790395</v>
       </c>
       <c r="K16">
-        <v>13.41323564871082</v>
+        <v>13.41323564871081</v>
       </c>
       <c r="L16">
-        <v>18.78041257113637</v>
+        <v>18.78041257113628</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.471390870434</v>
+        <v>22.47139087043394</v>
       </c>
       <c r="C17">
-        <v>27.50109954210712</v>
+        <v>27.50109954210713</v>
       </c>
       <c r="D17">
-        <v>8.928015298781125</v>
+        <v>8.928015298781169</v>
       </c>
       <c r="E17">
         <v>6.136011127487436</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>77.74471603231434</v>
+        <v>77.7447160323143</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.44212022326053</v>
+        <v>23.44212022326041</v>
       </c>
       <c r="K17">
-        <v>13.13298605705338</v>
+        <v>13.13298605705337</v>
       </c>
       <c r="L17">
-        <v>18.29646861629423</v>
+        <v>18.29646861629412</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.09693062512112</v>
+        <v>22.09693062512123</v>
       </c>
       <c r="C18">
-        <v>27.08375928474923</v>
+        <v>27.08375928474921</v>
       </c>
       <c r="D18">
-        <v>8.793793611983551</v>
+        <v>8.793793611983592</v>
       </c>
       <c r="E18">
-        <v>6.094864945094996</v>
+        <v>6.094864945094987</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76.71465650176282</v>
+        <v>76.71465650176323</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23.0695116407543</v>
+        <v>23.06951164075442</v>
       </c>
       <c r="K18">
-        <v>12.97198010209074</v>
+        <v>12.97198010209078</v>
       </c>
       <c r="L18">
-        <v>18.01739567526424</v>
+        <v>18.01739567526433</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.97014237385998</v>
+        <v>21.9701423738599</v>
       </c>
       <c r="C19">
-        <v>26.94219480453154</v>
+        <v>26.94219480453145</v>
       </c>
       <c r="D19">
-        <v>8.748249577826767</v>
+        <v>8.748249577826716</v>
       </c>
       <c r="E19">
-        <v>6.08099953853594</v>
+        <v>6.080999538536014</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.36540716105171</v>
+        <v>76.36540716105181</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.9432291579317</v>
+        <v>22.94322915793168</v>
       </c>
       <c r="K19">
         <v>12.91748590390837</v>
       </c>
       <c r="L19">
-        <v>17.92275301057469</v>
+        <v>17.92275301057467</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.54070481412787</v>
+        <v>22.54070481412774</v>
       </c>
       <c r="C20">
-        <v>27.57822572524584</v>
+        <v>27.57822572524569</v>
       </c>
       <c r="D20">
-        <v>8.952812768365447</v>
+        <v>8.952812768365515</v>
       </c>
       <c r="E20">
-        <v>6.143658604466771</v>
+        <v>6.143658604466803</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>77.93514456606911</v>
+        <v>77.93514456606903</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.51103292353932</v>
+        <v>23.51103292353921</v>
       </c>
       <c r="K20">
-        <v>13.16279680126295</v>
+        <v>13.16279680126297</v>
       </c>
       <c r="L20">
-        <v>18.3480527327471</v>
+        <v>18.34805273274702</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.46475473969813</v>
+        <v>24.46475473969781</v>
       </c>
       <c r="C21">
-        <v>29.70335884573486</v>
+        <v>29.70335884573458</v>
       </c>
       <c r="D21">
-        <v>9.6352208166842</v>
+        <v>9.635220816684193</v>
       </c>
       <c r="E21">
-        <v>6.35937974273457</v>
+        <v>6.35937974273455</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.18847274746133</v>
+        <v>83.18847274746085</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25.41672313223771</v>
+        <v>25.41672313223744</v>
       </c>
       <c r="K21">
-        <v>13.99029535998939</v>
+        <v>13.99029535998938</v>
       </c>
       <c r="L21">
-        <v>19.77082348873881</v>
+        <v>19.77082348873866</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.7375230591417</v>
+        <v>25.73752305914187</v>
       </c>
       <c r="C22">
-        <v>31.0921491168734</v>
+        <v>31.09214911687324</v>
       </c>
       <c r="D22">
         <v>10.08030782555145</v>
       </c>
       <c r="E22">
-        <v>6.505107245997112</v>
+        <v>6.505107245997086</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>86.6250443627786</v>
+        <v>86.62504436277844</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>26.66977042871038</v>
+        <v>26.66977042871042</v>
       </c>
       <c r="K22">
-        <v>14.59768728798482</v>
+        <v>14.59768728798484</v>
       </c>
       <c r="L22">
-        <v>20.70230317677682</v>
+        <v>20.70230317677691</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.05607919850318</v>
+        <v>25.05607919850324</v>
       </c>
       <c r="C23">
-        <v>30.35028937740474</v>
+        <v>30.35028937740471</v>
       </c>
       <c r="D23">
-        <v>9.842637113431987</v>
+        <v>9.842637113431996</v>
       </c>
       <c r="E23">
-        <v>6.42683011808821</v>
+        <v>6.426830118088249</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>84.78918916025808</v>
+        <v>84.789189160258</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>25.99962989711527</v>
+        <v>25.99962989711534</v>
       </c>
       <c r="K23">
         <v>14.25937835703703</v>
       </c>
       <c r="L23">
-        <v>20.20454781170481</v>
+        <v>20.20454781170485</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.50936782485699</v>
+        <v>22.50936782485698</v>
       </c>
       <c r="C24">
-        <v>27.54336165167631</v>
+        <v>27.54336165167624</v>
       </c>
       <c r="D24">
-        <v>8.941603613152287</v>
+        <v>8.941603613152338</v>
       </c>
       <c r="E24">
-        <v>6.140199981914162</v>
+        <v>6.140199981914184</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>77.84906081520441</v>
+        <v>77.84906081520494</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.47987959609171</v>
+        <v>23.47987959609173</v>
       </c>
       <c r="K24">
-        <v>13.14931904574849</v>
+        <v>13.14931904574853</v>
       </c>
       <c r="L24">
-        <v>18.324734272482</v>
+        <v>18.32473427248202</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>19.76866926460433</v>
       </c>
       <c r="C25">
-        <v>24.46368317210225</v>
+        <v>24.46368317210239</v>
       </c>
       <c r="D25">
-        <v>7.949544836914185</v>
+        <v>7.949544836914085</v>
       </c>
       <c r="E25">
-        <v>5.846328319685428</v>
+        <v>5.846328319685482</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.26732281545826</v>
+        <v>70.2673228154584</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20.74061236865122</v>
+        <v>20.74061236865131</v>
       </c>
       <c r="K25">
-        <v>11.97471789123427</v>
+        <v>11.97471789123429</v>
       </c>
       <c r="L25">
-        <v>16.26714103707991</v>
+        <v>16.26714103707994</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.70831892987008</v>
+        <v>17.55838290745877</v>
       </c>
       <c r="C2">
-        <v>22.10982109210524</v>
+        <v>22.01409526772882</v>
       </c>
       <c r="D2">
-        <v>7.188393811604286</v>
+        <v>7.166823927318114</v>
       </c>
       <c r="E2">
-        <v>5.639296624117017</v>
+        <v>5.526704605590476</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.074615112756179</v>
       </c>
       <c r="H2">
-        <v>64.51778494052432</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>64.58652582164373</v>
       </c>
       <c r="J2">
-        <v>18.6616030965154</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>11.10396683224996</v>
+        <v>18.51067253500378</v>
       </c>
       <c r="L2">
-        <v>14.69619989540518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>11.09517516622291</v>
+      </c>
+      <c r="M2">
+        <v>14.60674469039322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.26867349285809</v>
+        <v>16.13172190208896</v>
       </c>
       <c r="C3">
-        <v>20.44607477330815</v>
+        <v>20.36561213405238</v>
       </c>
       <c r="D3">
-        <v>6.648518467763011</v>
+        <v>6.628975163883633</v>
       </c>
       <c r="E3">
-        <v>5.503612450588957</v>
+        <v>5.386833936414458</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.092766373043154</v>
       </c>
       <c r="H3">
-        <v>60.49015368085335</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>60.5880512419881</v>
       </c>
       <c r="J3">
-        <v>17.19817473116236</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>10.50730851397746</v>
+        <v>17.05784495383766</v>
       </c>
       <c r="L3">
-        <v>13.58566444607429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>10.50243802860831</v>
+      </c>
+      <c r="M3">
+        <v>13.50052046855449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.35912357937532</v>
+        <v>15.23080580924353</v>
       </c>
       <c r="C4">
-        <v>19.38707873151973</v>
+        <v>19.35931577313054</v>
       </c>
       <c r="D4">
-        <v>6.303893744407669</v>
+        <v>6.287790569007838</v>
       </c>
       <c r="E4">
-        <v>5.422312864202131</v>
+        <v>5.302815465635897</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.103964285513176</v>
       </c>
       <c r="H4">
-        <v>57.94699223564965</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>58.06398147633524</v>
       </c>
       <c r="J4">
-        <v>16.26870740710989</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10.1374221403516</v>
+        <v>16.13527695095161</v>
       </c>
       <c r="L4">
-        <v>12.87827509373787</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>10.13504789906213</v>
+      </c>
+      <c r="M4">
+        <v>12.79574569084629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.9815214428458</v>
+        <v>14.85691414725547</v>
       </c>
       <c r="C5">
-        <v>18.95608530827684</v>
+        <v>18.94171009084948</v>
       </c>
       <c r="D5">
-        <v>6.180066693910784</v>
+        <v>6.167582397062967</v>
       </c>
       <c r="E5">
-        <v>5.389658417573416</v>
+        <v>5.269018954241413</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.108551431211531</v>
       </c>
       <c r="H5">
-        <v>56.89248853272598</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>57.01758993960188</v>
       </c>
       <c r="J5">
-        <v>15.88165789465199</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9.985816273622946</v>
+        <v>15.75115508418321</v>
       </c>
       <c r="L5">
-        <v>12.58322378692154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>9.984484200017517</v>
+      </c>
+      <c r="M5">
+        <v>12.60483337760343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.91838761329803</v>
+        <v>14.79440884272797</v>
       </c>
       <c r="C6">
-        <v>18.88527966749734</v>
+        <v>18.87187588597418</v>
       </c>
       <c r="D6">
-        <v>6.159908874389671</v>
+        <v>6.147529827060703</v>
       </c>
       <c r="E6">
-        <v>5.384264165708882</v>
+        <v>5.263433099340067</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.10931484990099</v>
       </c>
       <c r="H6">
-        <v>56.71628382060594</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>56.8427532233264</v>
       </c>
       <c r="J6">
-        <v>15.81687472964949</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9.960590841160663</v>
+        <v>15.68686560532063</v>
       </c>
       <c r="L6">
-        <v>12.53381106814634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>9.959433384474663</v>
+      </c>
+      <c r="M6">
+        <v>12.57426483218634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.35405987284224</v>
+        <v>15.22579132982961</v>
       </c>
       <c r="C7">
-        <v>19.38116619606957</v>
+        <v>19.35371659537823</v>
       </c>
       <c r="D7">
-        <v>6.301967227075489</v>
+        <v>6.286175580022722</v>
       </c>
       <c r="E7">
-        <v>5.421870582849221</v>
+        <v>5.302357915759963</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.104026039608851</v>
       </c>
       <c r="H7">
-        <v>57.93284475560542</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>58.04994201318673</v>
       </c>
       <c r="J7">
-        <v>16.26352168586257</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>10.1353810135524</v>
+        <v>16.13013021858234</v>
       </c>
       <c r="L7">
-        <v>12.87432385242294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>10.13302072352524</v>
+      </c>
+      <c r="M7">
+        <v>12.79180878356264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.21690243348899</v>
+        <v>17.07132118165601</v>
       </c>
       <c r="C8">
-        <v>21.54364126981918</v>
+        <v>21.45302048359617</v>
       </c>
       <c r="D8">
-        <v>7.004866082084741</v>
+        <v>6.983998356371256</v>
       </c>
       <c r="E8">
-        <v>5.592074869850231</v>
+        <v>5.478072045180089</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.080869526242696</v>
       </c>
       <c r="H8">
-        <v>63.14323561136406</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>63.22180369475549</v>
       </c>
       <c r="J8">
-        <v>18.16309877761931</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>10.89896535161451</v>
+        <v>18.01575302951006</v>
       </c>
       <c r="L8">
-        <v>14.3183462092889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>10.89150919436129</v>
+      </c>
+      <c r="M8">
+        <v>14.23038772094241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.69579598179212</v>
+        <v>20.52040692691304</v>
       </c>
       <c r="C9">
-        <v>25.51216515160484</v>
+        <v>25.38696226095313</v>
       </c>
       <c r="D9">
-        <v>8.287734731673059</v>
+        <v>8.26161929805753</v>
       </c>
       <c r="E9">
-        <v>5.943666216377196</v>
+        <v>5.839151094549911</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.035307983781965</v>
       </c>
       <c r="H9">
-        <v>72.8426674042617</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>72.85343795484093</v>
       </c>
       <c r="J9">
-        <v>21.67052891628637</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>12.37074018253759</v>
+        <v>21.49809901268239</v>
       </c>
       <c r="L9">
-        <v>16.96722965710947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>12.35382061466295</v>
+      </c>
+      <c r="M9">
+        <v>16.86802893692203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.19729621694905</v>
+        <v>23.00090499957309</v>
       </c>
       <c r="C10">
-        <v>28.3068724225261</v>
+        <v>28.15792226729502</v>
       </c>
       <c r="D10">
-        <v>9.186976248790206</v>
+        <v>9.156590737940324</v>
       </c>
       <c r="E10">
-        <v>6.216557644140408</v>
+        <v>6.118015607099013</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.000747284069451</v>
       </c>
       <c r="H10">
-        <v>79.73514426022955</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>79.69802036838934</v>
       </c>
       <c r="J10">
-        <v>24.16292153871004</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>13.44524943884045</v>
+        <v>23.97216302094103</v>
       </c>
       <c r="L10">
-        <v>18.83555995502865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>13.42135106079532</v>
+      </c>
+      <c r="M10">
+        <v>18.72714056822752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.33942031315117</v>
+        <v>24.13321894066911</v>
       </c>
       <c r="C11">
-        <v>29.5658612422817</v>
+        <v>29.40602393531544</v>
       </c>
       <c r="D11">
-        <v>9.59111780131245</v>
+        <v>9.558600749285183</v>
       </c>
       <c r="E11">
-        <v>6.345145425673905</v>
+        <v>6.24905681980845</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.984487693692813</v>
       </c>
       <c r="H11">
-        <v>82.84831275496767</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>82.78895911053067</v>
       </c>
       <c r="J11">
-        <v>25.29300626140997</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>13.93643486695867</v>
+        <v>25.09354858900736</v>
       </c>
       <c r="L11">
-        <v>19.67867926227781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>13.90923370512806</v>
+      </c>
+      <c r="M11">
+        <v>19.56564020922799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.77432527335545</v>
+        <v>24.56432024991507</v>
       </c>
       <c r="C12">
-        <v>30.04240727885393</v>
+        <v>29.87838541093096</v>
       </c>
       <c r="D12">
-        <v>9.743943607929603</v>
+        <v>9.710579616638832</v>
       </c>
       <c r="E12">
-        <v>6.394632730034165</v>
+        <v>6.299430345184002</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.978219350159278</v>
       </c>
       <c r="H12">
-        <v>84.0273450434224</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>83.9594082769014</v>
       </c>
       <c r="J12">
-        <v>25.72204842755585</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>14.12327327074911</v>
+        <v>25.51919897263259</v>
       </c>
       <c r="L12">
-        <v>19.99809500331819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>14.09478760081872</v>
+      </c>
+      <c r="M12">
+        <v>19.88321737900428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.6805191756581</v>
+        <v>24.47133830864102</v>
       </c>
       <c r="C13">
-        <v>29.93975379736631</v>
+        <v>29.77663686807458</v>
       </c>
       <c r="D13">
-        <v>9.711029967565169</v>
+        <v>9.67785040465542</v>
       </c>
       <c r="E13">
-        <v>6.383936415098679</v>
+        <v>6.288545164904605</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.979574939225156</v>
       </c>
       <c r="H13">
-        <v>83.77334837907277</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>83.70726950129351</v>
       </c>
       <c r="J13">
-        <v>25.62956626073874</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>14.08298721152458</v>
+        <v>25.42745253824559</v>
       </c>
       <c r="L13">
-        <v>19.92927538769412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>14.05477999854747</v>
+      </c>
+      <c r="M13">
+        <v>19.81479827037786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.37513973949826</v>
+        <v>24.16862757916339</v>
       </c>
       <c r="C14">
-        <v>29.60506048770727</v>
+        <v>29.44488049607576</v>
       </c>
       <c r="D14">
-        <v>9.603691831170762</v>
+        <v>9.571105988282206</v>
       </c>
       <c r="E14">
-        <v>6.349199793132783</v>
+        <v>6.253184988686812</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.983974450066696</v>
       </c>
       <c r="H14">
-        <v>82.94528669724373</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>82.8852309359402</v>
       </c>
       <c r="J14">
-        <v>25.32827064544458</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>13.95178592022276</v>
+        <v>25.12853620656383</v>
       </c>
       <c r="L14">
-        <v>19.70494733784333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>13.92447986863377</v>
+      </c>
+      <c r="M14">
+        <v>19.59175901327555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.1884619724107</v>
+        <v>23.98357106957502</v>
       </c>
       <c r="C15">
-        <v>29.40007858749941</v>
+        <v>29.24168775679788</v>
       </c>
       <c r="D15">
-        <v>9.53793328486568</v>
+        <v>9.505705474392489</v>
       </c>
       <c r="E15">
-        <v>6.328031465395023</v>
+        <v>6.231628968882919</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.98665363001524</v>
       </c>
       <c r="H15">
-        <v>82.43821050637209</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>82.38181894360601</v>
       </c>
       <c r="J15">
-        <v>25.14391860935014</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>13.87154808370495</v>
+        <v>24.94562720384184</v>
       </c>
       <c r="L15">
-        <v>19.5675973722134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>13.84478905734563</v>
+      </c>
+      <c r="M15">
+        <v>19.4551858315822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12288300312733</v>
+        <v>22.92712368631839</v>
       </c>
       <c r="C16">
-        <v>28.22447062002077</v>
+        <v>28.07622635639383</v>
       </c>
       <c r="D16">
-        <v>9.160504831257848</v>
+        <v>9.130253848602909</v>
       </c>
       <c r="E16">
-        <v>6.208255695809949</v>
+        <v>6.109547621290515</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.00179637735272</v>
       </c>
       <c r="H16">
-        <v>79.53150681373742</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>79.49581886139595</v>
       </c>
       <c r="J16">
-        <v>24.08912305790395</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>13.41323564871081</v>
+        <v>23.8989222291139</v>
       </c>
       <c r="L16">
-        <v>18.78041257113628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>13.38954934900845</v>
+      </c>
+      <c r="M16">
+        <v>18.67228437048139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.47139087043394</v>
+        <v>22.281135872492</v>
       </c>
       <c r="C17">
-        <v>27.50109954210713</v>
+        <v>27.359027305916</v>
       </c>
       <c r="D17">
-        <v>8.928015298781169</v>
+        <v>8.898921069907006</v>
       </c>
       <c r="E17">
-        <v>6.136011127487436</v>
+        <v>6.035817961208711</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.01092688693709</v>
       </c>
       <c r="H17">
-        <v>77.7447160323143</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>77.72155347089588</v>
       </c>
       <c r="J17">
-        <v>23.44212022326041</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>13.13298605705337</v>
+        <v>23.25676229140742</v>
       </c>
       <c r="L17">
-        <v>18.29646861629412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>13.11114269261667</v>
+      </c>
+      <c r="M17">
+        <v>18.19084228859769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.09693062512123</v>
+        <v>21.90982130030693</v>
       </c>
       <c r="C18">
-        <v>27.08375928474921</v>
+        <v>26.94523272130675</v>
       </c>
       <c r="D18">
-        <v>8.793793611983592</v>
+        <v>8.765347892999714</v>
       </c>
       <c r="E18">
-        <v>6.094864945094987</v>
+        <v>5.993793111251835</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.016130374038799</v>
       </c>
       <c r="H18">
-        <v>76.71465650176323</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>76.69866418599958</v>
       </c>
       <c r="J18">
-        <v>23.06951164075442</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>12.97198010209078</v>
+        <v>22.88690863139472</v>
       </c>
       <c r="L18">
-        <v>18.01739567526433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>12.95118587124997</v>
+      </c>
+      <c r="M18">
+        <v>17.91317042097616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.9701423738599</v>
+        <v>21.78409596294941</v>
       </c>
       <c r="C19">
-        <v>26.94219480453145</v>
+        <v>26.8048692872454</v>
       </c>
       <c r="D19">
-        <v>8.748249577826716</v>
+        <v>8.720020853325467</v>
       </c>
       <c r="E19">
-        <v>6.080999538536014</v>
+        <v>5.979626129223317</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.017884805525354</v>
       </c>
       <c r="H19">
-        <v>76.36540716105181</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>76.35183929750291</v>
       </c>
       <c r="J19">
-        <v>22.94322915793168</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>12.91748590390837</v>
+        <v>22.7615548143447</v>
       </c>
       <c r="L19">
-        <v>17.92275301057467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>12.89704540558521</v>
+      </c>
+      <c r="M19">
+        <v>17.81899630494164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.54070481412774</v>
+        <v>22.34986629282122</v>
       </c>
       <c r="C20">
-        <v>27.57822572524569</v>
+        <v>27.43549722550597</v>
       </c>
       <c r="D20">
-        <v>8.952812768365515</v>
+        <v>8.923597218518307</v>
       </c>
       <c r="E20">
-        <v>6.143658604466803</v>
+        <v>6.043626094297692</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.009960127373254</v>
       </c>
       <c r="H20">
-        <v>77.93514456606903</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>77.9106528071209</v>
       </c>
       <c r="J20">
-        <v>23.51103292353921</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>13.16279680126297</v>
+        <v>23.3251629037439</v>
       </c>
       <c r="L20">
-        <v>18.34805273274702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>13.14075847239306</v>
+      </c>
+      <c r="M20">
+        <v>18.24216417144533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.46475473969781</v>
+        <v>24.25746162822002</v>
       </c>
       <c r="C21">
-        <v>29.70335884573458</v>
+        <v>29.54231835914272</v>
       </c>
       <c r="D21">
-        <v>9.635220816684193</v>
+        <v>9.602461788875083</v>
       </c>
       <c r="E21">
-        <v>6.35937974273455</v>
+        <v>6.263549299755384</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.982685542590136</v>
       </c>
       <c r="H21">
-        <v>83.18847274746085</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>83.12665332387564</v>
       </c>
       <c r="J21">
-        <v>25.41672313223744</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>13.99029535998938</v>
+        <v>25.21629293639744</v>
       </c>
       <c r="L21">
-        <v>19.77082348873866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>13.96272568602422</v>
+      </c>
+      <c r="M21">
+        <v>19.65725931536777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.73752305914187</v>
+        <v>25.51891932983141</v>
       </c>
       <c r="C22">
-        <v>31.09214911687324</v>
+        <v>30.91874363018252</v>
       </c>
       <c r="D22">
-        <v>10.08030782555145</v>
+        <v>10.04499105566512</v>
       </c>
       <c r="E22">
-        <v>6.505107245997086</v>
+        <v>6.411769964919997</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.96418849266194</v>
       </c>
       <c r="H22">
-        <v>86.62504436277844</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>86.53778908777841</v>
       </c>
       <c r="J22">
-        <v>26.66977042871042</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>14.59768728798484</v>
+        <v>26.45922021900535</v>
       </c>
       <c r="L22">
-        <v>20.70230317677691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>14.55106157416697</v>
+      </c>
+      <c r="M22">
+        <v>20.58318011590083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.05607919850324</v>
+        <v>24.8435854888614</v>
       </c>
       <c r="C23">
-        <v>30.35028937740471</v>
+        <v>30.18354077800379</v>
       </c>
       <c r="D23">
-        <v>9.842637113431996</v>
+        <v>9.808713215189439</v>
       </c>
       <c r="E23">
-        <v>6.426830118088249</v>
+        <v>6.332187368662348</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.974136059628119</v>
       </c>
       <c r="H23">
-        <v>84.789189160258</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>84.71564863900934</v>
       </c>
       <c r="J23">
-        <v>25.99962989711534</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>14.25937835703703</v>
+        <v>25.79455614723825</v>
       </c>
       <c r="L23">
-        <v>20.20454781170485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>14.21489641684562</v>
+      </c>
+      <c r="M23">
+        <v>20.08845380675448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.50936782485698</v>
+        <v>22.31879316947866</v>
       </c>
       <c r="C24">
-        <v>27.54336165167624</v>
+        <v>27.4009298536154</v>
       </c>
       <c r="D24">
-        <v>8.941603613152338</v>
+        <v>8.912442963109585</v>
       </c>
       <c r="E24">
-        <v>6.140199981914184</v>
+        <v>6.040094916227556</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.010397339498513</v>
       </c>
       <c r="H24">
-        <v>77.84906081520494</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>77.82517007516651</v>
       </c>
       <c r="J24">
-        <v>23.47987959609173</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>13.14931904574853</v>
+        <v>23.29424117939922</v>
       </c>
       <c r="L24">
-        <v>18.32473427248202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>13.12736889160276</v>
+      </c>
+      <c r="M24">
+        <v>18.21896438119552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.76866926460433</v>
+        <v>19.60105789416847</v>
       </c>
       <c r="C25">
-        <v>24.46368317210239</v>
+        <v>24.34741457238484</v>
       </c>
       <c r="D25">
-        <v>7.949544836914085</v>
+        <v>7.924896185544387</v>
       </c>
       <c r="E25">
-        <v>5.846328319685482</v>
+        <v>5.739407148059952</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.04773990518177</v>
       </c>
       <c r="H25">
-        <v>70.2673228154584</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>70.29586125403991</v>
       </c>
       <c r="J25">
-        <v>20.74061236865131</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>11.97471789123429</v>
+        <v>20.57484482666259</v>
       </c>
       <c r="L25">
-        <v>16.26714103707994</v>
+        <v>11.96033115579737</v>
+      </c>
+      <c r="M25">
+        <v>16.17109409745635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.55838290745877</v>
+        <v>23.03826395944672</v>
       </c>
       <c r="C2">
-        <v>22.01409526772882</v>
+        <v>16.32691090134483</v>
       </c>
       <c r="D2">
-        <v>7.166823927318114</v>
+        <v>7.210432566822106</v>
       </c>
       <c r="E2">
-        <v>5.526704605590476</v>
+        <v>10.11704473605953</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.074615112756179</v>
+        <v>2.06253229486807</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.58652582164373</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.51067253500378</v>
+        <v>20.2562867339433</v>
       </c>
       <c r="L2">
-        <v>11.09517516622291</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>14.60674469039322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.87265126418095</v>
+      </c>
+      <c r="N2">
+        <v>14.58311739512979</v>
+      </c>
+      <c r="O2">
+        <v>31.65401053053544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.13172190208896</v>
+        <v>21.35320778192665</v>
       </c>
       <c r="C3">
-        <v>20.36561213405238</v>
+        <v>15.12554173864494</v>
       </c>
       <c r="D3">
-        <v>6.628975163883633</v>
+        <v>6.686647960052943</v>
       </c>
       <c r="E3">
-        <v>5.386833936414458</v>
+        <v>9.507952592971854</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.092766373043154</v>
+        <v>2.07531950522102</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.5880512419881</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.05784495383766</v>
+        <v>18.77769562687563</v>
       </c>
       <c r="L3">
-        <v>10.50243802860831</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.50052046855449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17.50720441051073</v>
+      </c>
+      <c r="N3">
+        <v>14.64258964922379</v>
+      </c>
+      <c r="O3">
+        <v>30.18722524794558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.23080580924353</v>
+        <v>20.27103291476193</v>
       </c>
       <c r="C4">
-        <v>19.35931577313054</v>
+        <v>14.35405686810092</v>
       </c>
       <c r="D4">
-        <v>6.287790569007838</v>
+        <v>6.349949395429842</v>
       </c>
       <c r="E4">
-        <v>5.302815465635897</v>
+        <v>9.127219612144595</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.103964285513176</v>
+        <v>2.08330437741111</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.06398147633524</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.13527695095161</v>
+        <v>17.82721129343479</v>
       </c>
       <c r="L4">
-        <v>10.13504789906213</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.79574569084629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.63016157649335</v>
+      </c>
+      <c r="N4">
+        <v>14.68595738885771</v>
+      </c>
+      <c r="O4">
+        <v>29.28842775257594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.85691414725547</v>
+        <v>19.81783846786815</v>
       </c>
       <c r="C5">
-        <v>18.94171009084948</v>
+        <v>14.03094133740007</v>
       </c>
       <c r="D5">
-        <v>6.167582397062967</v>
+        <v>6.214649044692479</v>
       </c>
       <c r="E5">
-        <v>5.269018954241413</v>
+        <v>8.970434609272194</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.108551431211531</v>
+        <v>2.086596091801965</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>57.01758993960188</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.75115508418321</v>
+        <v>17.42890719835482</v>
       </c>
       <c r="L5">
-        <v>9.984484200017517</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.60483337760343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16.26279104562026</v>
+      </c>
+      <c r="N5">
+        <v>14.70524042458507</v>
+      </c>
+      <c r="O5">
+        <v>28.92281181270199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.79440884272797</v>
+        <v>19.74184256999385</v>
       </c>
       <c r="C6">
-        <v>18.87187588597418</v>
+        <v>13.97675496221455</v>
       </c>
       <c r="D6">
-        <v>6.147529827060703</v>
+        <v>6.194681288916256</v>
       </c>
       <c r="E6">
-        <v>5.263433099340067</v>
+        <v>8.944304657489029</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.10931484990099</v>
+        <v>2.087145079004819</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.8427532233264</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.68686560532063</v>
+        <v>17.36209921796115</v>
       </c>
       <c r="L6">
-        <v>9.959433384474663</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.57426483218634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16.20118048828985</v>
+      </c>
+      <c r="N6">
+        <v>14.70853653748071</v>
+      </c>
+      <c r="O6">
+        <v>28.86214810607475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.22579132982961</v>
+        <v>20.26497066949088</v>
       </c>
       <c r="C7">
-        <v>19.35371659537823</v>
+        <v>14.34973484025459</v>
       </c>
       <c r="D7">
-        <v>6.286175580022722</v>
+        <v>6.348062410224118</v>
       </c>
       <c r="E7">
-        <v>5.302357915759963</v>
+        <v>9.125111651114308</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.104026039608851</v>
+        <v>2.083348612187018</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.04994201318673</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.13013021858234</v>
+        <v>17.82188438192062</v>
       </c>
       <c r="L7">
-        <v>10.13302072352524</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.79180878356264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.62524776541785</v>
+      </c>
+      <c r="N7">
+        <v>14.68621106709518</v>
+      </c>
+      <c r="O7">
+        <v>29.28349397582806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.07132118165601</v>
+        <v>22.46696642986438</v>
       </c>
       <c r="C8">
-        <v>21.45302048359617</v>
+        <v>15.91956332731315</v>
       </c>
       <c r="D8">
-        <v>6.983998356371256</v>
+        <v>7.032907160797021</v>
       </c>
       <c r="E8">
-        <v>5.478072045180089</v>
+        <v>9.908454509989472</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.080869526242696</v>
+        <v>2.066916315903182</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.22180369475549</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.01575302951006</v>
+        <v>19.75515387474846</v>
       </c>
       <c r="L8">
-        <v>10.89150919436129</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>14.23038772094241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>18.40971100431916</v>
+      </c>
+      <c r="N8">
+        <v>14.60213005242585</v>
+      </c>
+      <c r="O8">
+        <v>31.14797743948091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.52040692691304</v>
+        <v>26.42077609856787</v>
       </c>
       <c r="C9">
-        <v>25.38696226095313</v>
+        <v>18.74059780506254</v>
       </c>
       <c r="D9">
-        <v>8.26161929805753</v>
+        <v>8.260655431848388</v>
       </c>
       <c r="E9">
-        <v>5.839151094549911</v>
+        <v>11.54714316265172</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.035307983781965</v>
+        <v>2.035534819548302</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>72.85343795484093</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.49809901268239</v>
+        <v>23.22093648549642</v>
       </c>
       <c r="L9">
-        <v>12.35382061466295</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16.86802893692203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21.61482839580929</v>
+      </c>
+      <c r="N9">
+        <v>14.49733751666359</v>
+      </c>
+      <c r="O9">
+        <v>34.81490880353977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.00090499957309</v>
+        <v>29.12475251353577</v>
       </c>
       <c r="C10">
-        <v>28.15792226729502</v>
+        <v>20.67392948391496</v>
       </c>
       <c r="D10">
-        <v>9.156590737940324</v>
+        <v>9.099530406946455</v>
       </c>
       <c r="E10">
-        <v>6.118015607099013</v>
+        <v>12.76635226409933</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.000747284069451</v>
+        <v>2.012643678246906</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>79.69802036838934</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.97216302094103</v>
+        <v>25.58917611233116</v>
       </c>
       <c r="L10">
-        <v>13.42135106079532</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>18.72714056822752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>23.80998820148271</v>
+      </c>
+      <c r="N10">
+        <v>14.46611994234867</v>
+      </c>
+      <c r="O10">
+        <v>37.51881479159243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.13321894066911</v>
+        <v>30.31698962669908</v>
       </c>
       <c r="C11">
-        <v>29.40602393531544</v>
+        <v>21.52788418714519</v>
       </c>
       <c r="D11">
-        <v>9.558600749285183</v>
+        <v>9.469299238895641</v>
       </c>
       <c r="E11">
-        <v>6.24905681980845</v>
+        <v>13.30696307168366</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.984487693692813</v>
+        <v>2.002171839487711</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.78895911053067</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.09354858900736</v>
+        <v>26.63322161256114</v>
       </c>
       <c r="L11">
-        <v>13.90923370512806</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>19.56564020922799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24.77916014278076</v>
+      </c>
+      <c r="N11">
+        <v>14.46429374294591</v>
+      </c>
+      <c r="O11">
+        <v>38.75438884551225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.56432024991507</v>
+        <v>30.76359614265848</v>
       </c>
       <c r="C12">
-        <v>29.87838541093096</v>
+        <v>21.84804820757767</v>
       </c>
       <c r="D12">
-        <v>9.710579616638832</v>
+        <v>9.607800920311133</v>
       </c>
       <c r="E12">
-        <v>6.299430345184002</v>
+        <v>13.5099876233016</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.978219350159278</v>
+        <v>1.998188573501443</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>83.9594082769014</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.51919897263259</v>
+        <v>27.02431634215802</v>
       </c>
       <c r="L12">
-        <v>14.09478760081872</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>19.88321737900428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>25.14244494189645</v>
+      </c>
+      <c r="N12">
+        <v>14.46562428541442</v>
+      </c>
+      <c r="O12">
+        <v>39.22354830842082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.47133830864102</v>
+        <v>30.66761781311316</v>
       </c>
       <c r="C13">
-        <v>29.77663686807458</v>
+        <v>21.77922976077462</v>
       </c>
       <c r="D13">
-        <v>9.67785040465542</v>
+        <v>9.578036596800143</v>
       </c>
       <c r="E13">
-        <v>6.288545164904605</v>
+        <v>13.46633223303755</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.979574939225156</v>
+        <v>1.999047400251533</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.70726950129351</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.42745253824559</v>
+        <v>26.94026743363735</v>
       </c>
       <c r="L13">
-        <v>14.05477999854747</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>19.81479827037786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25.06436145396308</v>
+      </c>
+      <c r="N13">
+        <v>14.46524352119275</v>
+      </c>
+      <c r="O13">
+        <v>39.1224402186972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.16862757916339</v>
+        <v>30.35382616095418</v>
       </c>
       <c r="C14">
-        <v>29.44488049607576</v>
+        <v>21.55428569569092</v>
       </c>
       <c r="D14">
-        <v>9.571105988282206</v>
+        <v>9.480723215864726</v>
       </c>
       <c r="E14">
-        <v>6.253184988686812</v>
+        <v>13.32369791488247</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.983974450066696</v>
+        <v>2.001844550300627</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>82.8852309359402</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.12853620656383</v>
+        <v>26.66547934316048</v>
       </c>
       <c r="L14">
-        <v>13.92447986863377</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>19.59175901327555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24.80911912409491</v>
+      </c>
+      <c r="N14">
+        <v>14.46436115584673</v>
+      </c>
+      <c r="O14">
+        <v>38.79295796459284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.98357106957502</v>
+        <v>30.16100434068215</v>
       </c>
       <c r="C15">
-        <v>29.24168775679788</v>
+        <v>21.41609788696336</v>
       </c>
       <c r="D15">
-        <v>9.505705474392489</v>
+        <v>9.420923634616706</v>
       </c>
       <c r="E15">
-        <v>6.231628968882919</v>
+        <v>13.23612027794568</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.98665363001524</v>
+        <v>2.003555260042241</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.38181894360601</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.94562720384184</v>
+        <v>26.49662553741752</v>
       </c>
       <c r="L15">
-        <v>13.84478905734563</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>19.4551858315822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24.65230800110146</v>
+      </c>
+      <c r="N15">
+        <v>14.46409186535845</v>
+      </c>
+      <c r="O15">
+        <v>38.5913237325413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.92712368631839</v>
+        <v>29.04612267059489</v>
       </c>
       <c r="C16">
-        <v>28.07622635639383</v>
+        <v>20.61764555941069</v>
       </c>
       <c r="D16">
-        <v>9.130253848602909</v>
+        <v>9.075141725074717</v>
       </c>
       <c r="E16">
-        <v>6.109547621290515</v>
+        <v>12.7307664276276</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.00179637735272</v>
+        <v>2.013326092610627</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.49581886139595</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.8989222291139</v>
+        <v>25.52031845915025</v>
       </c>
       <c r="L16">
-        <v>13.38954934900845</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>18.67228437048139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23.74610039607904</v>
+      </c>
+      <c r="N16">
+        <v>14.46650819815609</v>
+      </c>
+      <c r="O16">
+        <v>37.4382155236425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.281135872492</v>
+        <v>28.35287023623872</v>
       </c>
       <c r="C17">
-        <v>27.359027305916</v>
+        <v>20.12158779929262</v>
       </c>
       <c r="D17">
-        <v>8.898921069907006</v>
+        <v>8.860103441875637</v>
       </c>
       <c r="E17">
-        <v>6.035817961208711</v>
+        <v>12.41737204587385</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.01092688693709</v>
+        <v>2.019298989939203</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.72155347089588</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.25676229140742</v>
+        <v>24.91320904424255</v>
       </c>
       <c r="L17">
-        <v>13.11114269261667</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>18.19084228859769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>23.18297540963882</v>
+      </c>
+      <c r="N17">
+        <v>14.47132123381073</v>
+      </c>
+      <c r="O17">
+        <v>36.73252711612642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.90982130030693</v>
+        <v>27.95053123874793</v>
       </c>
       <c r="C18">
-        <v>26.94523272130675</v>
+        <v>19.83383418573435</v>
       </c>
       <c r="D18">
-        <v>8.765347892999714</v>
+        <v>8.735292409191675</v>
       </c>
       <c r="E18">
-        <v>5.993793111251835</v>
+        <v>12.23577477647771</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.016130374038799</v>
+        <v>2.022729578359841</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>76.69866418599958</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.88690863139472</v>
+        <v>24.56084775404485</v>
       </c>
       <c r="L18">
-        <v>12.95118587124997</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>17.91317042097616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22.85627704204993</v>
+      </c>
+      <c r="N18">
+        <v>14.47523780367759</v>
+      </c>
+      <c r="O18">
+        <v>36.32711805513136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.78409596294941</v>
+        <v>27.8136722457059</v>
       </c>
       <c r="C19">
-        <v>26.8048692872454</v>
+        <v>19.7359748050904</v>
       </c>
       <c r="D19">
-        <v>8.720020853325467</v>
+        <v>8.692834960429895</v>
       </c>
       <c r="E19">
-        <v>5.979626129223317</v>
+        <v>12.17404975005422</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.017884805525354</v>
+        <v>2.023890542181115</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.35183929750291</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.7615548143447</v>
+        <v>24.4409855473511</v>
       </c>
       <c r="L19">
-        <v>12.89704540558521</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>17.81899630494164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22.74516677121377</v>
+      </c>
+      <c r="N19">
+        <v>14.47675429980566</v>
+      </c>
+      <c r="O19">
+        <v>36.18992503105937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.34986629282122</v>
+        <v>28.42703674456109</v>
       </c>
       <c r="C20">
-        <v>27.43549722550597</v>
+        <v>20.17464283445583</v>
       </c>
       <c r="D20">
-        <v>8.923597218518307</v>
+        <v>8.883110021923587</v>
       </c>
       <c r="E20">
-        <v>6.043626094297692</v>
+        <v>12.45087004664598</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.009960127373254</v>
+        <v>2.018663731250705</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>77.9106528071209</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.3251629037439</v>
+        <v>24.97816122894646</v>
       </c>
       <c r="L20">
-        <v>13.14075847239306</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>18.24216417144533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>23.24320776363919</v>
+      </c>
+      <c r="N20">
+        <v>14.47068840008832</v>
+      </c>
+      <c r="O20">
+        <v>36.80759584968158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.25746162822002</v>
+        <v>30.44612146160012</v>
       </c>
       <c r="C21">
-        <v>29.54231835914272</v>
+        <v>21.62044028722424</v>
       </c>
       <c r="D21">
-        <v>9.602461788875083</v>
+        <v>9.50934623112428</v>
       </c>
       <c r="E21">
-        <v>6.263549299755384</v>
+        <v>13.36563618142061</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.982685542590136</v>
+        <v>2.001023525779639</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.12665332387564</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.21629293639744</v>
+        <v>26.74630236366647</v>
       </c>
       <c r="L21">
-        <v>13.96272568602422</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>19.65725931536777</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>24.88418644563261</v>
+      </c>
+      <c r="N21">
+        <v>14.46456332544285</v>
+      </c>
+      <c r="O21">
+        <v>38.88969560963096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.51891932983141</v>
+        <v>31.73767536717372</v>
       </c>
       <c r="C22">
-        <v>30.91874363018252</v>
+        <v>22.54691440799108</v>
       </c>
       <c r="D22">
-        <v>10.04499105566512</v>
+        <v>9.909863781985379</v>
       </c>
       <c r="E22">
-        <v>6.411769964919997</v>
+        <v>13.95381183727392</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.96418849266194</v>
+        <v>1.989385224260051</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>86.53778908777841</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.45922021900535</v>
+        <v>27.87734674404333</v>
       </c>
       <c r="L22">
-        <v>14.55106157416697</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>20.58318011590083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25.93528161699248</v>
+      </c>
+      <c r="N22">
+        <v>14.47248816383455</v>
+      </c>
+      <c r="O22">
+        <v>40.25825305946211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.8435854888614</v>
+        <v>31.05069919957274</v>
       </c>
       <c r="C23">
-        <v>30.18354077800379</v>
+        <v>22.05395162071042</v>
       </c>
       <c r="D23">
-        <v>9.808713215189439</v>
+        <v>9.696834375205189</v>
       </c>
       <c r="E23">
-        <v>6.332187368662348</v>
+        <v>13.64065553577709</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.974136059628119</v>
+        <v>1.995610363248405</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.71564863900934</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.79455614723825</v>
+        <v>27.2757363644084</v>
       </c>
       <c r="L23">
-        <v>14.21489641684562</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.08845380675448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>25.37605696025786</v>
+      </c>
+      <c r="N23">
+        <v>14.46707658901831</v>
+      </c>
+      <c r="O23">
+        <v>39.52690991621461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.31879316947866</v>
+        <v>28.39351787833971</v>
       </c>
       <c r="C24">
-        <v>27.4009298536154</v>
+        <v>20.15066467108956</v>
       </c>
       <c r="D24">
-        <v>8.912442963109585</v>
+        <v>8.872712443993146</v>
       </c>
       <c r="E24">
-        <v>6.040094916227556</v>
+        <v>12.43573005522592</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.010397339498513</v>
+        <v>2.018950941329403</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>77.82517007516651</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.29424117939922</v>
+        <v>24.9488067442025</v>
       </c>
       <c r="L24">
-        <v>13.12736889160276</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>18.21896438119552</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>23.21598594322695</v>
+      </c>
+      <c r="N24">
+        <v>14.4709709417274</v>
+      </c>
+      <c r="O24">
+        <v>36.77365637242181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.60105789416847</v>
+        <v>25.38816789928475</v>
       </c>
       <c r="C25">
-        <v>24.34741457238484</v>
+        <v>18.00330602800554</v>
       </c>
       <c r="D25">
-        <v>7.924896185544387</v>
+        <v>7.940171747871624</v>
       </c>
       <c r="E25">
-        <v>5.739407148059952</v>
+        <v>11.08385673148631</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.04773990518177</v>
+        <v>2.043967241450437</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.29586125403991</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.57484482666259</v>
+        <v>22.31624069333408</v>
       </c>
       <c r="L25">
-        <v>11.96033115579737</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>16.17109409745635</v>
+        <v>20.77736959060528</v>
+      </c>
+      <c r="N25">
+        <v>14.51838465991106</v>
+      </c>
+      <c r="O25">
+        <v>33.82185779345374</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.03826395944672</v>
+        <v>21.93010156130841</v>
       </c>
       <c r="C2">
-        <v>16.32691090134483</v>
+        <v>17.26541492144672</v>
       </c>
       <c r="D2">
-        <v>7.210432566822106</v>
+        <v>12.21507828705171</v>
       </c>
       <c r="E2">
-        <v>10.11704473605953</v>
+        <v>13.21228681245474</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.06253229486807</v>
+        <v>2.072147081774141</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.91431373829074</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.856328717078388</v>
       </c>
       <c r="K2">
-        <v>20.2562867339433</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.87265126418095</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.58311739512979</v>
+        <v>11.50285620030231</v>
       </c>
       <c r="O2">
-        <v>31.65401053053544</v>
+        <v>18.80732717984863</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.35320778192665</v>
+        <v>20.43406199835684</v>
       </c>
       <c r="C3">
-        <v>15.12554173864494</v>
+        <v>16.08022332838223</v>
       </c>
       <c r="D3">
-        <v>6.686647960052943</v>
+        <v>11.68571854788657</v>
       </c>
       <c r="E3">
-        <v>9.507952592971854</v>
+        <v>12.64955062015877</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.07531950522102</v>
+        <v>2.079305365307848</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.93740790196033</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.761136688305402</v>
       </c>
       <c r="K3">
-        <v>18.77769562687563</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.50720441051073</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.64258964922379</v>
+        <v>11.67860306400557</v>
       </c>
       <c r="O3">
-        <v>30.18722524794558</v>
+        <v>18.34909414422511</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.27103291476193</v>
+        <v>19.46229341728687</v>
       </c>
       <c r="C4">
-        <v>14.35405686810092</v>
+        <v>15.31111446170401</v>
       </c>
       <c r="D4">
-        <v>6.349949395429842</v>
+        <v>11.3576704489875</v>
       </c>
       <c r="E4">
-        <v>9.127219612144595</v>
+        <v>12.30152325417752</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.08330437741111</v>
+        <v>2.083823535958397</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.96898707727681</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.705519023215029</v>
       </c>
       <c r="K4">
-        <v>17.82721129343479</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.63016157649335</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.68595738885771</v>
+        <v>11.7898144335647</v>
       </c>
       <c r="O4">
-        <v>29.28842775257594</v>
+        <v>18.08373564084025</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.81783846786815</v>
+        <v>19.05281149700217</v>
       </c>
       <c r="C5">
-        <v>14.03094133740007</v>
+        <v>14.98719767054887</v>
       </c>
       <c r="D5">
-        <v>6.214649044692479</v>
+        <v>11.22340429855159</v>
       </c>
       <c r="E5">
-        <v>8.970434609272194</v>
+        <v>12.15925326486374</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.086596091801965</v>
+        <v>2.085696785233535</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.98598723795412</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.683566849341051</v>
       </c>
       <c r="K5">
-        <v>17.42890719835482</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.26279104562026</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.70524042458507</v>
+        <v>11.83596890429827</v>
       </c>
       <c r="O5">
-        <v>28.92281181270199</v>
+        <v>17.97962562505911</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.74184256999385</v>
+        <v>18.9840003398057</v>
       </c>
       <c r="C6">
-        <v>13.97675496221455</v>
+        <v>14.93277488798391</v>
       </c>
       <c r="D6">
-        <v>6.194681288916256</v>
+        <v>11.2010798178853</v>
       </c>
       <c r="E6">
-        <v>8.944304657489029</v>
+        <v>12.13560833864246</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.087145079004819</v>
+        <v>2.086009805184623</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.9890525767772</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.679964739729817</v>
       </c>
       <c r="K6">
-        <v>17.36209921796115</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.20118048828985</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.70853653748071</v>
+        <v>11.84368339727779</v>
       </c>
       <c r="O6">
-        <v>28.86214810607475</v>
+        <v>17.96258121246315</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.26497066949088</v>
+        <v>19.45682570783073</v>
       </c>
       <c r="C7">
-        <v>14.34973484025459</v>
+        <v>15.30678863147729</v>
       </c>
       <c r="D7">
-        <v>6.348062410224118</v>
+        <v>11.35586180407968</v>
       </c>
       <c r="E7">
-        <v>9.125111651114308</v>
+        <v>12.29960609678335</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.083348612187018</v>
+        <v>2.083848667989598</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.96919993879037</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.705220083529607</v>
       </c>
       <c r="K7">
-        <v>17.82188438192062</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.62524776541785</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.68621106709518</v>
+        <v>11.79043350155674</v>
       </c>
       <c r="O7">
-        <v>29.28349397582806</v>
+        <v>18.08231528217529</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.46696642986438</v>
+        <v>21.42524508954665</v>
       </c>
       <c r="C8">
-        <v>15.91956332731315</v>
+        <v>16.86529793605145</v>
       </c>
       <c r="D8">
-        <v>7.032907160797021</v>
+        <v>12.03327941900022</v>
       </c>
       <c r="E8">
-        <v>9.908454509989472</v>
+        <v>13.01887807230384</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.066916315903182</v>
+        <v>2.074590446137154</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.91851767230946</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.822919651355471</v>
       </c>
       <c r="K8">
-        <v>19.75515387474846</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.40971100431916</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.60213005242585</v>
+        <v>11.56277089076944</v>
       </c>
       <c r="O8">
-        <v>31.14797743948091</v>
+        <v>18.64601298759639</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.42077609856787</v>
+        <v>24.86801079123581</v>
       </c>
       <c r="C9">
-        <v>18.74059780506254</v>
+        <v>19.59727123389404</v>
       </c>
       <c r="D9">
-        <v>8.260655431848388</v>
+        <v>13.33130907707671</v>
       </c>
       <c r="E9">
-        <v>11.54714316265172</v>
+        <v>14.40272336009288</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.035534819548302</v>
+        <v>2.057355427075618</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.96821841442943</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.07614447048462</v>
       </c>
       <c r="K9">
-        <v>23.22093648549642</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.61482839580929</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.49733751666359</v>
+        <v>11.14236195854488</v>
       </c>
       <c r="O9">
-        <v>34.81490880353977</v>
+        <v>19.87784354324063</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.12475251353577</v>
+        <v>27.14991597199147</v>
       </c>
       <c r="C10">
-        <v>20.67392948391496</v>
+        <v>21.41291095920293</v>
       </c>
       <c r="D10">
-        <v>9.099530406946455</v>
+        <v>14.25969074685303</v>
       </c>
       <c r="E10">
-        <v>12.76635226409933</v>
+        <v>15.39607097461411</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.012643678246906</v>
+        <v>2.04517069841042</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.11077371824883</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.275833609301046</v>
       </c>
       <c r="K10">
-        <v>25.58917611233116</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.80998820148271</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>14.46611994234867</v>
+        <v>10.84922005148045</v>
       </c>
       <c r="O10">
-        <v>37.51881479159243</v>
+        <v>20.8591265535893</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.31698962669908</v>
+        <v>28.13586580547643</v>
       </c>
       <c r="C11">
-        <v>21.52788418714519</v>
+        <v>22.19873716417332</v>
       </c>
       <c r="D11">
-        <v>9.469299238895641</v>
+        <v>14.6756365659742</v>
       </c>
       <c r="E11">
-        <v>13.30696307168366</v>
+        <v>15.84194377631014</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.002171839487711</v>
+        <v>2.039711033091222</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.20187973512796</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.369656814590349</v>
       </c>
       <c r="K11">
-        <v>26.63322161256114</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.77916014278076</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14.46429374294591</v>
+        <v>10.71928449355442</v>
       </c>
       <c r="O11">
-        <v>38.75438884551225</v>
+        <v>21.32198919758938</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.76359614265848</v>
+        <v>28.50186545476465</v>
       </c>
       <c r="C12">
-        <v>21.84804820757767</v>
+        <v>22.49066640561208</v>
       </c>
       <c r="D12">
-        <v>9.607800920311133</v>
+        <v>14.8321836928948</v>
       </c>
       <c r="E12">
-        <v>13.5099876233016</v>
+        <v>16.00987604027582</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.998188573501443</v>
+        <v>2.037653721619236</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>14.24041610286553</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.405617690342315</v>
       </c>
       <c r="K12">
-        <v>27.02431634215802</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.14244494189645</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>14.46562428541442</v>
+        <v>10.67057679034175</v>
       </c>
       <c r="O12">
-        <v>39.22354830842082</v>
+        <v>21.49963422282417</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.66761781311316</v>
+        <v>28.42336591797506</v>
       </c>
       <c r="C13">
-        <v>21.77922976077462</v>
+        <v>22.42804328335413</v>
       </c>
       <c r="D13">
-        <v>9.578036596800143</v>
+        <v>14.79851173725657</v>
       </c>
       <c r="E13">
-        <v>13.46633223303755</v>
+        <v>15.97374975685442</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.999047400251533</v>
+        <v>2.038096380079738</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>14.23193297458972</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.397853578102797</v>
       </c>
       <c r="K13">
-        <v>26.94026743363735</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.06436145396308</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>14.46524352119275</v>
+        <v>10.68104469434681</v>
       </c>
       <c r="O13">
-        <v>39.1224402186972</v>
+        <v>21.46126964813909</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.35382616095418</v>
+        <v>28.16612348940998</v>
       </c>
       <c r="C14">
-        <v>21.55428569569092</v>
+        <v>22.22286678051954</v>
       </c>
       <c r="D14">
-        <v>9.480723215864726</v>
+        <v>14.68853525506071</v>
       </c>
       <c r="E14">
-        <v>13.32369791488247</v>
+        <v>15.85577807621989</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.001844550300627</v>
+        <v>2.039541584554493</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14.20496776899932</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.372606651078404</v>
       </c>
       <c r="K14">
-        <v>26.66547934316048</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.80911912409491</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>14.46436115584673</v>
+        <v>10.71526730135512</v>
       </c>
       <c r="O14">
-        <v>38.79295796459284</v>
+        <v>21.33655662362101</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.16100434068215</v>
+        <v>28.00760093656657</v>
       </c>
       <c r="C15">
-        <v>21.41609788696336</v>
+        <v>22.09645875121067</v>
       </c>
       <c r="D15">
-        <v>9.420923634616706</v>
+        <v>14.62104520931746</v>
       </c>
       <c r="E15">
-        <v>13.23612027794568</v>
+        <v>15.78339756807763</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.003555260042241</v>
+        <v>2.040428078276312</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>14.18898414203985</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.357198583316308</v>
       </c>
       <c r="K15">
-        <v>26.49662553741752</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.65230800110146</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14.46409186535845</v>
+        <v>10.73629443277887</v>
       </c>
       <c r="O15">
-        <v>38.5913237325413</v>
+        <v>21.26047508777283</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.04612267059489</v>
+        <v>27.08444469471833</v>
       </c>
       <c r="C16">
-        <v>20.61764555941069</v>
+        <v>21.36075840327981</v>
       </c>
       <c r="D16">
-        <v>9.075141725074717</v>
+        <v>14.23237492066269</v>
       </c>
       <c r="E16">
-        <v>12.7307664276276</v>
+        <v>15.36680670935799</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.013326092610627</v>
+        <v>2.045529023085884</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.10537046683879</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.269762278428695</v>
       </c>
       <c r="K16">
-        <v>25.52031845915025</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.74610039607904</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>14.46650819815609</v>
+        <v>10.85778073628077</v>
       </c>
       <c r="O16">
-        <v>37.4382155236425</v>
+        <v>20.82920853248501</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.35287023623872</v>
+        <v>26.50486680510299</v>
       </c>
       <c r="C17">
-        <v>20.12158779929262</v>
+        <v>20.89923973871961</v>
       </c>
       <c r="D17">
-        <v>8.860103441875637</v>
+        <v>13.99226446532713</v>
       </c>
       <c r="E17">
-        <v>12.41737204587385</v>
+        <v>15.10966200038862</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.019298989939203</v>
+        <v>2.048678358703457</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.06098801010854</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.216888455653066</v>
       </c>
       <c r="K17">
-        <v>24.91320904424255</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.18297540963882</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.47132123381073</v>
+        <v>10.9331861724098</v>
       </c>
       <c r="O17">
-        <v>36.73252711612642</v>
+        <v>20.56885496191593</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.95053123874793</v>
+        <v>26.16659654604442</v>
       </c>
       <c r="C18">
-        <v>19.83383418573435</v>
+        <v>20.63000254480548</v>
       </c>
       <c r="D18">
-        <v>8.735292409191675</v>
+        <v>13.85355994449331</v>
       </c>
       <c r="E18">
-        <v>12.23577477647771</v>
+        <v>14.96119494699603</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.022729578359841</v>
+        <v>2.050497725620839</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.03791644496042</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.186757345455259</v>
       </c>
       <c r="K18">
-        <v>24.56084775404485</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.85627704204993</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.47523780367759</v>
+        <v>10.97687848436204</v>
       </c>
       <c r="O18">
-        <v>36.32711805513136</v>
+        <v>20.42065612471781</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.8136722457059</v>
+        <v>26.05121639516677</v>
       </c>
       <c r="C19">
-        <v>19.7359748050904</v>
+        <v>20.53818997164932</v>
       </c>
       <c r="D19">
-        <v>8.692834960429895</v>
+        <v>13.80649581361632</v>
       </c>
       <c r="E19">
-        <v>12.17404975005422</v>
+        <v>14.91083149622566</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.023890542181115</v>
+        <v>2.051115150705464</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.03051862643311</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.176603598006111</v>
       </c>
       <c r="K19">
-        <v>24.4409855473511</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.74516677121377</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.47675429980566</v>
+        <v>10.9917269979616</v>
       </c>
       <c r="O19">
-        <v>36.18992503105937</v>
+        <v>20.37074493217818</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.42703674456109</v>
+        <v>26.56707133055366</v>
       </c>
       <c r="C20">
-        <v>20.17464283445583</v>
+        <v>20.94875994184818</v>
       </c>
       <c r="D20">
-        <v>8.883110021923587</v>
+        <v>14.01788706646458</v>
       </c>
       <c r="E20">
-        <v>12.45087004664598</v>
+        <v>15.13709430832577</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.018663731250705</v>
+        <v>2.048342296189869</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.06545650443977</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.22248791877132</v>
       </c>
       <c r="K20">
-        <v>24.97816122894646</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.24320776363919</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.47068840008832</v>
+        <v>10.92512587647266</v>
       </c>
       <c r="O20">
-        <v>36.80759584968158</v>
+        <v>20.59640970768232</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.44612146160012</v>
+        <v>28.24188041703777</v>
       </c>
       <c r="C21">
-        <v>21.62044028722424</v>
+        <v>22.28328430467944</v>
       </c>
       <c r="D21">
-        <v>9.50934623112428</v>
+        <v>14.72086437584853</v>
       </c>
       <c r="E21">
-        <v>13.36563618142061</v>
+        <v>15.89045415697697</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.001023525779639</v>
+        <v>2.039116832994279</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>14.21277649657866</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.380010521578258</v>
       </c>
       <c r="K21">
-        <v>26.74630236366647</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.88418644563261</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>14.46456332544285</v>
+        <v>10.70520177578815</v>
       </c>
       <c r="O21">
-        <v>38.88969560963096</v>
+        <v>21.37312348600969</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.73767536717372</v>
+        <v>29.29364427211383</v>
       </c>
       <c r="C22">
-        <v>22.54691440799108</v>
+        <v>23.12262684048864</v>
       </c>
       <c r="D22">
-        <v>9.909863781985379</v>
+        <v>15.17468652032628</v>
       </c>
       <c r="E22">
-        <v>13.95381183727392</v>
+        <v>16.37751083241777</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.989385224260051</v>
+        <v>2.033145622756965</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>14.33270432553638</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.485482589614122</v>
       </c>
       <c r="K22">
-        <v>27.87734674404333</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.93528161699248</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>14.47248816383455</v>
+        <v>10.56436460522972</v>
       </c>
       <c r="O22">
-        <v>40.25825305946211</v>
+        <v>21.89457176179775</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.05069919957274</v>
+        <v>28.73616978376019</v>
       </c>
       <c r="C23">
-        <v>22.05395162071042</v>
+        <v>22.67761648817979</v>
       </c>
       <c r="D23">
-        <v>9.696834375205189</v>
+        <v>14.93299543783635</v>
       </c>
       <c r="E23">
-        <v>13.64065553577709</v>
+        <v>16.11805365454206</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.995610363248405</v>
+        <v>2.036327895449101</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>14.26644794961312</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.428957647962879</v>
       </c>
       <c r="K23">
-        <v>27.2757363644084</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.37605696025786</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14.46707658901831</v>
+        <v>10.63926468864424</v>
       </c>
       <c r="O23">
-        <v>39.52690991621461</v>
+        <v>21.61499587109811</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.39351787833971</v>
+        <v>26.53896444538345</v>
       </c>
       <c r="C24">
-        <v>20.15066467108956</v>
+        <v>20.92638402716988</v>
       </c>
       <c r="D24">
-        <v>8.872712443993146</v>
+        <v>14.00630514619813</v>
       </c>
       <c r="E24">
-        <v>12.43573005522592</v>
+        <v>15.12469412390569</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.018950941329403</v>
+        <v>2.048494202593949</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.06342870389231</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.219955570800904</v>
       </c>
       <c r="K24">
-        <v>24.9488067442025</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.21598594322695</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.4709709417274</v>
+        <v>10.92876887531905</v>
       </c>
       <c r="O24">
-        <v>36.77365637242181</v>
+        <v>20.58394759111493</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.38816789928475</v>
+        <v>23.98063161432163</v>
       </c>
       <c r="C25">
-        <v>18.00330602800554</v>
+        <v>18.89229998192867</v>
       </c>
       <c r="D25">
-        <v>7.940171747871624</v>
+        <v>12.98420457953423</v>
       </c>
       <c r="E25">
-        <v>11.08385673148631</v>
+        <v>14.03204581657484</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.043967241450437</v>
+        <v>2.061927629434126</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.93724841177662</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.005244543819937</v>
       </c>
       <c r="K25">
-        <v>22.31624069333408</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.77736959060528</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.51838465991106</v>
+        <v>11.25332657512383</v>
       </c>
       <c r="O25">
-        <v>33.82185779345374</v>
+        <v>19.53114785951879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.93010156130841</v>
+        <v>16.08243182378393</v>
       </c>
       <c r="C2">
-        <v>17.26541492144672</v>
+        <v>11.54652060741781</v>
       </c>
       <c r="D2">
-        <v>12.21507828705171</v>
+        <v>14.93673672045921</v>
       </c>
       <c r="E2">
-        <v>13.21228681245474</v>
+        <v>16.34864725508803</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.072147081774141</v>
+        <v>3.65508773797977</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.91431373829074</v>
+        <v>22.16266826565719</v>
       </c>
       <c r="J2">
-        <v>5.856328717078388</v>
+        <v>9.328658768441201</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.50285620030231</v>
+        <v>17.20295148930182</v>
       </c>
       <c r="O2">
-        <v>18.80732717984863</v>
+        <v>26.01961115084887</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.43406199835684</v>
+        <v>15.56285996144461</v>
       </c>
       <c r="C3">
-        <v>16.08022332838223</v>
+        <v>11.07790983594115</v>
       </c>
       <c r="D3">
-        <v>11.68571854788657</v>
+        <v>14.8751389402851</v>
       </c>
       <c r="E3">
-        <v>12.64955062015877</v>
+        <v>16.28739504374102</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.079305365307848</v>
+        <v>3.657771447183607</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.93740790196033</v>
+        <v>22.25870033585676</v>
       </c>
       <c r="J3">
-        <v>5.761136688305402</v>
+        <v>9.337402268129123</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.67860306400557</v>
+        <v>17.25894361650414</v>
       </c>
       <c r="O3">
-        <v>18.34909414422511</v>
+        <v>26.04568234186899</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.46229341728687</v>
+        <v>15.23735797720343</v>
       </c>
       <c r="C4">
-        <v>15.31111446170401</v>
+        <v>10.78154081173902</v>
       </c>
       <c r="D4">
-        <v>11.3576704489875</v>
+        <v>14.84072283646632</v>
       </c>
       <c r="E4">
-        <v>12.30152325417752</v>
+        <v>16.25354583896944</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.083823535958397</v>
+        <v>3.65950606170176</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.96898707727681</v>
+        <v>22.32313973539977</v>
       </c>
       <c r="J4">
-        <v>5.705519023215029</v>
+        <v>9.344242886257621</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.7898144335647</v>
+        <v>17.29519501451462</v>
       </c>
       <c r="O4">
-        <v>18.08373564084025</v>
+        <v>26.06892182955569</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.05281149700217</v>
+        <v>15.10329045574808</v>
       </c>
       <c r="C5">
-        <v>14.98719767054887</v>
+        <v>10.65877703487406</v>
       </c>
       <c r="D5">
-        <v>11.22340429855159</v>
+        <v>14.82756424920418</v>
       </c>
       <c r="E5">
-        <v>12.15925326486374</v>
+        <v>16.24070688236896</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.085696785233535</v>
+        <v>3.660234834158326</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.98598723795412</v>
+        <v>22.35077116019686</v>
       </c>
       <c r="J5">
-        <v>5.683566849341051</v>
+        <v>9.347400637163284</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.83596890429827</v>
+        <v>17.31043961739885</v>
       </c>
       <c r="O5">
-        <v>17.97962562505911</v>
+        <v>26.08020502937777</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.9840003398057</v>
+        <v>15.08094909030358</v>
       </c>
       <c r="C6">
-        <v>14.93277488798391</v>
+        <v>10.63827768020671</v>
       </c>
       <c r="D6">
-        <v>11.2010798178853</v>
+        <v>14.82543186506827</v>
       </c>
       <c r="E6">
-        <v>12.13560833864246</v>
+        <v>16.23863290668958</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.086009805184623</v>
+        <v>3.660357171354234</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.9890525767772</v>
+        <v>22.35544204786365</v>
       </c>
       <c r="J6">
-        <v>5.679964739729817</v>
+        <v>9.347947332840699</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.84368339727779</v>
+        <v>17.31299950513793</v>
       </c>
       <c r="O6">
-        <v>17.96258121246315</v>
+        <v>26.08218791198756</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.45682570783073</v>
+        <v>15.23555537072718</v>
       </c>
       <c r="C7">
-        <v>15.30678863147729</v>
+        <v>10.77989298225509</v>
       </c>
       <c r="D7">
-        <v>11.35586180407968</v>
+        <v>14.84054185537335</v>
       </c>
       <c r="E7">
-        <v>12.29960609678335</v>
+        <v>16.25336881053637</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.083848667989598</v>
+        <v>3.659515801398763</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.96919993879037</v>
+        <v>22.32350683454144</v>
       </c>
       <c r="J7">
-        <v>5.705220083529607</v>
+        <v>9.34428397418541</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.79043350155674</v>
+        <v>17.29539869650688</v>
       </c>
       <c r="O7">
-        <v>18.08231528217529</v>
+        <v>26.06906666637455</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.42524508954665</v>
+        <v>15.90474822913254</v>
       </c>
       <c r="C8">
-        <v>16.86529793605145</v>
+        <v>11.38683931850287</v>
       </c>
       <c r="D8">
-        <v>12.03327941900022</v>
+        <v>14.91479739619653</v>
       </c>
       <c r="E8">
-        <v>13.01887807230384</v>
+        <v>16.32675312776511</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.074590446137154</v>
+        <v>3.655995109402697</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.91851767230946</v>
+        <v>22.19464074036505</v>
       </c>
       <c r="J8">
-        <v>5.822919651355471</v>
+        <v>9.331368006886136</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.56277089076944</v>
+        <v>17.22186971929848</v>
       </c>
       <c r="O8">
-        <v>18.64601298759639</v>
+        <v>26.02709650231651</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.86801079123581</v>
+        <v>17.15732923405663</v>
       </c>
       <c r="C9">
-        <v>19.59727123389404</v>
+        <v>12.50157216499539</v>
       </c>
       <c r="D9">
-        <v>13.33130907707671</v>
+        <v>15.08694066923666</v>
       </c>
       <c r="E9">
-        <v>14.40272336009288</v>
+        <v>16.50002585673614</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.057355427075618</v>
+        <v>3.649776398434019</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.96821841442943</v>
+        <v>21.98560044216746</v>
       </c>
       <c r="J9">
-        <v>6.07614447048462</v>
+        <v>9.317718905359957</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.14236195854488</v>
+        <v>17.0924818982614</v>
       </c>
       <c r="O9">
-        <v>19.87784354324063</v>
+        <v>26.0023815061072</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.14991597199147</v>
+        <v>18.03131195603956</v>
       </c>
       <c r="C10">
-        <v>21.41291095920293</v>
+        <v>13.2666192759822</v>
       </c>
       <c r="D10">
-        <v>14.25969074685303</v>
+        <v>15.22885942311162</v>
       </c>
       <c r="E10">
-        <v>15.39607097461411</v>
+        <v>16.64453220310917</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.04517069841042</v>
+        <v>3.645620546633745</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.11077371824883</v>
+        <v>21.85894047724751</v>
       </c>
       <c r="J10">
-        <v>6.275833609301046</v>
+        <v>9.314805989157223</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.84922005148045</v>
+        <v>17.00637346424427</v>
       </c>
       <c r="O10">
-        <v>20.8591265535893</v>
+        <v>26.01955672491036</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.13586580547643</v>
+        <v>18.41709449522034</v>
       </c>
       <c r="C11">
-        <v>22.19873716417332</v>
+        <v>13.60161851112244</v>
       </c>
       <c r="D11">
-        <v>14.6756365659742</v>
+        <v>15.29659987730468</v>
       </c>
       <c r="E11">
-        <v>15.84194377631014</v>
+        <v>16.7138358869765</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.039711033091222</v>
+        <v>3.643818611267965</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.20187973512796</v>
+        <v>21.80722982455839</v>
       </c>
       <c r="J11">
-        <v>6.369656814590349</v>
+        <v>9.315023058911695</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.71928449355442</v>
+        <v>16.96912977281165</v>
       </c>
       <c r="O11">
-        <v>21.32198919758938</v>
+        <v>26.03506952317938</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.50186545476465</v>
+        <v>18.56135776544243</v>
       </c>
       <c r="C12">
-        <v>22.49066640561208</v>
+        <v>13.72651075466447</v>
       </c>
       <c r="D12">
-        <v>14.8321836928948</v>
+        <v>15.32269259745734</v>
       </c>
       <c r="E12">
-        <v>16.00987604027582</v>
+        <v>16.74057630973548</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.037653721619236</v>
+        <v>3.64314892571432</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.24041610286553</v>
+        <v>21.78850315753387</v>
       </c>
       <c r="J12">
-        <v>6.405617690342315</v>
+        <v>9.315326600755707</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.67057679034175</v>
+        <v>16.95530265898437</v>
       </c>
       <c r="O12">
-        <v>21.49963422282417</v>
+        <v>26.04205136695045</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.42336591797506</v>
+        <v>18.53037110438662</v>
       </c>
       <c r="C13">
-        <v>22.42804328335413</v>
+        <v>13.69970167672843</v>
       </c>
       <c r="D13">
-        <v>14.79851173725657</v>
+        <v>15.31705372675932</v>
       </c>
       <c r="E13">
-        <v>15.97374975685442</v>
+        <v>16.73479546304192</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.038096380079738</v>
+        <v>3.643292592162537</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.23193297458972</v>
+        <v>21.79249816487381</v>
       </c>
       <c r="J13">
-        <v>6.397853578102797</v>
+        <v>9.315251391050866</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.68104469434681</v>
+        <v>16.95826830253148</v>
       </c>
       <c r="O13">
-        <v>21.46126964813909</v>
+        <v>26.0404984538324</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.16612348940998</v>
+        <v>18.42900036235419</v>
       </c>
       <c r="C14">
-        <v>22.22286678051954</v>
+        <v>13.61193332517692</v>
       </c>
       <c r="D14">
-        <v>14.68853525506071</v>
+        <v>15.2987378027326</v>
       </c>
       <c r="E14">
-        <v>15.85577807621989</v>
+        <v>16.71602598120914</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.039541584554493</v>
+        <v>3.643763262341956</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.20496776899932</v>
+        <v>21.80567200271611</v>
       </c>
       <c r="J14">
-        <v>6.372606651078404</v>
+        <v>9.315043598203307</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.71526730135512</v>
+        <v>16.96798667617708</v>
       </c>
       <c r="O14">
-        <v>21.33655662362101</v>
+        <v>26.03562173044449</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.00760093656657</v>
+        <v>18.36666674173589</v>
       </c>
       <c r="C15">
-        <v>22.09645875121067</v>
+        <v>13.55791431755136</v>
       </c>
       <c r="D15">
-        <v>14.62104520931746</v>
+        <v>15.28757568167724</v>
       </c>
       <c r="E15">
-        <v>15.78339756807763</v>
+        <v>16.70459330705763</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.040428078276312</v>
+        <v>3.64405320913496</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.18898414203985</v>
+        <v>21.81385287286915</v>
       </c>
       <c r="J15">
-        <v>6.357198583316308</v>
+        <v>9.31494513026208</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.73629443277887</v>
+        <v>16.9739754119961</v>
       </c>
       <c r="O15">
-        <v>21.26047508777283</v>
+        <v>26.03277881272181</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.08444469471833</v>
+        <v>18.00585151959094</v>
       </c>
       <c r="C16">
-        <v>21.36075840327981</v>
+        <v>13.24445604672194</v>
       </c>
       <c r="D16">
-        <v>14.23237492066269</v>
+        <v>15.22449503873845</v>
       </c>
       <c r="E16">
-        <v>15.36680670935799</v>
+        <v>16.64007344833746</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.045529023085884</v>
+        <v>3.645740083877439</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.10537046683879</v>
+        <v>21.86243923969766</v>
       </c>
       <c r="J16">
-        <v>6.269762278428695</v>
+        <v>9.31482280185393</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.85778073628077</v>
+        <v>17.00884613476908</v>
       </c>
       <c r="O16">
-        <v>20.82920853248501</v>
+        <v>26.01869791385034</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.50486680510299</v>
+        <v>17.7813860502783</v>
       </c>
       <c r="C17">
-        <v>20.89923973871961</v>
+        <v>13.0487540099274</v>
       </c>
       <c r="D17">
-        <v>13.99226446532713</v>
+        <v>15.18660031557105</v>
       </c>
       <c r="E17">
-        <v>15.10966200038862</v>
+        <v>16.6013948901076</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.048678358703457</v>
+        <v>3.646797565189925</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.06098801010854</v>
+        <v>21.8937624282218</v>
       </c>
       <c r="J17">
-        <v>6.216888455653066</v>
+        <v>9.315142475972904</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.9331861724098</v>
+        <v>17.03073121277227</v>
       </c>
       <c r="O17">
-        <v>20.56885496191593</v>
+        <v>26.01203236778381</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.16659654604442</v>
+        <v>17.65117578505883</v>
       </c>
       <c r="C18">
-        <v>20.63000254480548</v>
+        <v>12.93497001639143</v>
       </c>
       <c r="D18">
-        <v>13.85355994449331</v>
+        <v>15.16510471872181</v>
       </c>
       <c r="E18">
-        <v>14.96119494699603</v>
+        <v>16.57948478797758</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.050497725620839</v>
+        <v>3.647414142412789</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.03791644496042</v>
+        <v>21.91233442083524</v>
       </c>
       <c r="J18">
-        <v>6.186757345455259</v>
+        <v>9.315471531633332</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.97687848436204</v>
+        <v>17.04350040534816</v>
       </c>
       <c r="O18">
-        <v>20.42065612471781</v>
+        <v>26.00892330849787</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.05121639516677</v>
+        <v>17.60690340657994</v>
       </c>
       <c r="C19">
-        <v>20.53818997164932</v>
+        <v>12.89623796114702</v>
       </c>
       <c r="D19">
-        <v>13.80649581361632</v>
+        <v>15.15787877091424</v>
       </c>
       <c r="E19">
-        <v>14.91083149622566</v>
+        <v>16.57212472847307</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.051115150705464</v>
+        <v>3.647624339738014</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.03051862643311</v>
+        <v>21.91871785527238</v>
       </c>
       <c r="J19">
-        <v>6.176603598006111</v>
+        <v>9.315607891544101</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.9917269979616</v>
+        <v>17.04785503098348</v>
       </c>
       <c r="O19">
-        <v>20.37074493217818</v>
+        <v>26.00799509064076</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.56707133055366</v>
+        <v>17.80539598000489</v>
       </c>
       <c r="C20">
-        <v>20.94875994184818</v>
+        <v>13.06971393929403</v>
       </c>
       <c r="D20">
-        <v>14.01788706646458</v>
+        <v>15.19060329569241</v>
       </c>
       <c r="E20">
-        <v>15.13709430832577</v>
+        <v>16.60547754832951</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.048342296189869</v>
+        <v>3.646684131645741</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.06545650443977</v>
+        <v>21.89037046582897</v>
       </c>
       <c r="J20">
-        <v>6.22248791877132</v>
+        <v>9.315093422482345</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.92512587647266</v>
+        <v>17.02838273353168</v>
       </c>
       <c r="O20">
-        <v>20.59640970768232</v>
+        <v>26.01266690824816</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.24188041703777</v>
+        <v>18.45882586267414</v>
       </c>
       <c r="C21">
-        <v>22.28328430467944</v>
+        <v>13.63776700455522</v>
       </c>
       <c r="D21">
-        <v>14.72086437584853</v>
+        <v>15.30410580395732</v>
       </c>
       <c r="E21">
-        <v>15.89045415697697</v>
+        <v>16.7215256892471</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.039116832994279</v>
+        <v>3.643624671842124</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.21277649657866</v>
+        <v>21.80177927796361</v>
       </c>
       <c r="J21">
-        <v>6.380010521578258</v>
+        <v>9.315098628661794</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.70520177578815</v>
+        <v>16.96512466360482</v>
       </c>
       <c r="O21">
-        <v>21.37312348600969</v>
+        <v>26.03702408887069</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.29364427211383</v>
+        <v>18.87519783773749</v>
       </c>
       <c r="C22">
-        <v>23.12262684048864</v>
+        <v>13.99753725206908</v>
       </c>
       <c r="D22">
-        <v>15.17468652032628</v>
+        <v>15.38084782583802</v>
       </c>
       <c r="E22">
-        <v>16.37751083241777</v>
+        <v>16.80025637175305</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.033145622756965</v>
+        <v>3.641698946259513</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.33270432553638</v>
+        <v>21.74886614410391</v>
       </c>
       <c r="J22">
-        <v>6.485482589614122</v>
+        <v>9.316391919796445</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.56436460522972</v>
+        <v>16.92539173509194</v>
       </c>
       <c r="O22">
-        <v>21.89457176179775</v>
+        <v>26.05939751380416</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.73616978376019</v>
+        <v>18.65398827423311</v>
       </c>
       <c r="C23">
-        <v>22.67761648817979</v>
+        <v>13.8065989626392</v>
       </c>
       <c r="D23">
-        <v>14.93299543783635</v>
+        <v>15.33966044488275</v>
       </c>
       <c r="E23">
-        <v>16.11805365454206</v>
+        <v>16.75797782371305</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.036327895449101</v>
+        <v>3.642720011727442</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.26644794961312</v>
+        <v>21.77664881572104</v>
       </c>
       <c r="J23">
-        <v>6.428957647962879</v>
+        <v>9.315583804887801</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.63926468864424</v>
+        <v>16.94645093448591</v>
       </c>
       <c r="O23">
-        <v>21.61499587109811</v>
+        <v>26.04686599799426</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.53896444538345</v>
+        <v>17.79454470047507</v>
       </c>
       <c r="C24">
-        <v>20.92638402716988</v>
+        <v>13.06024191104762</v>
       </c>
       <c r="D24">
-        <v>14.00630514619813</v>
+        <v>15.18879264200356</v>
       </c>
       <c r="E24">
-        <v>15.12469412390569</v>
+        <v>16.60363075965066</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.048494202593949</v>
+        <v>3.6467353881025</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.06342870389231</v>
+        <v>21.8919022159133</v>
       </c>
       <c r="J24">
-        <v>6.219955570800904</v>
+        <v>9.315115147027047</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.92876887531905</v>
+        <v>17.02944389786452</v>
       </c>
       <c r="O24">
-        <v>20.58394759111493</v>
+        <v>26.01237778017179</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.98063161432163</v>
+        <v>16.82595023421456</v>
       </c>
       <c r="C25">
-        <v>18.89229998192867</v>
+        <v>12.20897755885062</v>
       </c>
       <c r="D25">
-        <v>12.98420457953423</v>
+        <v>15.03760228325613</v>
       </c>
       <c r="E25">
-        <v>14.03204581657484</v>
+        <v>16.45007496069634</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.061927629434126</v>
+        <v>3.651385847882736</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.93724841177662</v>
+        <v>22.03744537808064</v>
       </c>
       <c r="J25">
-        <v>6.005244543819937</v>
+        <v>9.320161162771551</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.25332657512383</v>
+        <v>17.12590749235675</v>
       </c>
       <c r="O25">
-        <v>19.53114785951879</v>
+        <v>26.00287494562365</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.08243182378393</v>
+        <v>21.93010156130846</v>
       </c>
       <c r="C2">
-        <v>11.54652060741781</v>
+        <v>17.26541492144673</v>
       </c>
       <c r="D2">
-        <v>14.93673672045921</v>
+        <v>12.21507828705165</v>
       </c>
       <c r="E2">
-        <v>16.34864725508803</v>
+        <v>13.21228681245475</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.65508773797977</v>
+        <v>2.07214708177414</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.16266826565719</v>
+        <v>13.91431373829077</v>
       </c>
       <c r="J2">
-        <v>9.328658768441201</v>
+        <v>5.85632871707841</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.20295148930182</v>
+        <v>11.5028562003023</v>
       </c>
       <c r="O2">
-        <v>26.01961115084887</v>
+        <v>18.80732717984866</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.56285996144461</v>
+        <v>20.43406199835688</v>
       </c>
       <c r="C3">
-        <v>11.07790983594115</v>
+        <v>16.08022332838222</v>
       </c>
       <c r="D3">
-        <v>14.8751389402851</v>
+        <v>11.6857185478865</v>
       </c>
       <c r="E3">
-        <v>16.28739504374102</v>
+        <v>12.64955062015871</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.657771447183607</v>
+        <v>2.079305365307581</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.25870033585676</v>
+        <v>13.9374079019602</v>
       </c>
       <c r="J3">
-        <v>9.337402268129123</v>
+        <v>5.761136688305449</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.25894361650414</v>
+        <v>11.67860306400553</v>
       </c>
       <c r="O3">
-        <v>26.04568234186899</v>
+        <v>18.34909414422499</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.23735797720343</v>
+        <v>19.46229341728689</v>
       </c>
       <c r="C4">
-        <v>10.78154081173902</v>
+        <v>15.311114461704</v>
       </c>
       <c r="D4">
-        <v>14.84072283646632</v>
+        <v>11.35767044898741</v>
       </c>
       <c r="E4">
-        <v>16.25354583896944</v>
+        <v>12.30152325417745</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.65950606170176</v>
+        <v>2.08382353595813</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.32313973539977</v>
+        <v>13.96898707727672</v>
       </c>
       <c r="J4">
-        <v>9.344242886257621</v>
+        <v>5.705519023214977</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.29519501451462</v>
+        <v>11.78981443356462</v>
       </c>
       <c r="O4">
-        <v>26.06892182955569</v>
+        <v>18.08373564084016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.10329045574808</v>
+        <v>19.05281149700215</v>
       </c>
       <c r="C5">
-        <v>10.65877703487406</v>
+        <v>14.98719767054889</v>
       </c>
       <c r="D5">
-        <v>14.82756424920418</v>
+        <v>11.22340429855155</v>
       </c>
       <c r="E5">
-        <v>16.24070688236896</v>
+        <v>12.15925326486368</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.660234834158326</v>
+        <v>2.085696785233403</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.35077116019686</v>
+        <v>13.98598723795417</v>
       </c>
       <c r="J5">
-        <v>9.347400637163284</v>
+        <v>5.683566849341053</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.31043961739885</v>
+        <v>11.83596890429827</v>
       </c>
       <c r="O5">
-        <v>26.08020502937777</v>
+        <v>17.97962562505915</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.08094909030358</v>
+        <v>18.98400033980569</v>
       </c>
       <c r="C6">
-        <v>10.63827768020671</v>
+        <v>14.93277488798397</v>
       </c>
       <c r="D6">
-        <v>14.82543186506827</v>
+        <v>11.20107981788525</v>
       </c>
       <c r="E6">
-        <v>16.23863290668958</v>
+        <v>12.1356083386424</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.660357171354234</v>
+        <v>2.08600980518489</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.35544204786365</v>
+        <v>13.98905257677722</v>
       </c>
       <c r="J6">
-        <v>9.347947332840699</v>
+        <v>5.679964739729761</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.31299950513793</v>
+        <v>11.84368339727779</v>
       </c>
       <c r="O6">
-        <v>26.08218791198756</v>
+        <v>17.96258121246314</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.23555537072718</v>
+        <v>19.45682570783075</v>
       </c>
       <c r="C7">
-        <v>10.77989298225509</v>
+        <v>15.30678863147726</v>
       </c>
       <c r="D7">
-        <v>14.84054185537335</v>
+        <v>11.35586180407974</v>
       </c>
       <c r="E7">
-        <v>16.25336881053637</v>
+        <v>12.29960609678343</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.659515801398763</v>
+        <v>2.083848667989732</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.32350683454144</v>
+        <v>13.96919993879038</v>
       </c>
       <c r="J7">
-        <v>9.34428397418541</v>
+        <v>5.705220083529589</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.29539869650688</v>
+        <v>11.79043350155674</v>
       </c>
       <c r="O7">
-        <v>26.06906666637455</v>
+        <v>18.08231528217531</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.90474822913254</v>
+        <v>21.42524508954665</v>
       </c>
       <c r="C8">
-        <v>11.38683931850287</v>
+        <v>16.86529793605142</v>
       </c>
       <c r="D8">
-        <v>14.91479739619653</v>
+        <v>12.03327941900023</v>
       </c>
       <c r="E8">
-        <v>16.32675312776511</v>
+        <v>13.01887807230386</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.655995109402697</v>
+        <v>2.074590446137155</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.19464074036505</v>
+        <v>13.91851767230949</v>
       </c>
       <c r="J8">
-        <v>9.331368006886136</v>
+        <v>5.822919651355529</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.22186971929848</v>
+        <v>11.56277089076944</v>
       </c>
       <c r="O8">
-        <v>26.02709650231651</v>
+        <v>18.64601298759643</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.15732923405663</v>
+        <v>24.86801079123586</v>
       </c>
       <c r="C9">
-        <v>12.50157216499539</v>
+        <v>19.59727123389405</v>
       </c>
       <c r="D9">
-        <v>15.08694066923666</v>
+        <v>13.33130907707671</v>
       </c>
       <c r="E9">
-        <v>16.50002585673614</v>
+        <v>14.40272336009289</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.649776398434019</v>
+        <v>2.057355427075884</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.98560044216746</v>
+        <v>13.96821841442937</v>
       </c>
       <c r="J9">
-        <v>9.317718905359957</v>
+        <v>6.076144470484691</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.0924818982614</v>
+        <v>11.14236195854481</v>
       </c>
       <c r="O9">
-        <v>26.0023815061072</v>
+        <v>19.8778435432406</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.03131195603956</v>
+        <v>27.14991597199148</v>
       </c>
       <c r="C10">
-        <v>13.2666192759822</v>
+        <v>21.41291095920277</v>
       </c>
       <c r="D10">
-        <v>15.22885942311162</v>
+        <v>14.25969074685301</v>
       </c>
       <c r="E10">
-        <v>16.64453220310917</v>
+        <v>15.39607097461413</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.645620546633745</v>
+        <v>2.045170698410289</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.85894047724751</v>
+        <v>14.11077371824888</v>
       </c>
       <c r="J10">
-        <v>9.314805989157223</v>
+        <v>6.275833609301068</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.00637346424427</v>
+        <v>10.84922005148055</v>
       </c>
       <c r="O10">
-        <v>26.01955672491036</v>
+        <v>20.85912655358935</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.41709449522034</v>
+        <v>28.13586580547642</v>
       </c>
       <c r="C11">
-        <v>13.60161851112244</v>
+        <v>22.19873716417328</v>
       </c>
       <c r="D11">
-        <v>15.29659987730468</v>
+        <v>14.67563656597419</v>
       </c>
       <c r="E11">
-        <v>16.7138358869765</v>
+        <v>15.84194377631012</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.643818611267965</v>
+        <v>2.039711033091351</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.80722982455839</v>
+        <v>14.20187973512803</v>
       </c>
       <c r="J11">
-        <v>9.315023058911695</v>
+        <v>6.369656814590299</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.96912977281165</v>
+        <v>10.71928449355448</v>
       </c>
       <c r="O11">
-        <v>26.03506952317938</v>
+        <v>21.32198919758942</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.56135776544243</v>
+        <v>28.5018654547647</v>
       </c>
       <c r="C12">
-        <v>13.72651075466447</v>
+        <v>22.49066640561212</v>
       </c>
       <c r="D12">
-        <v>15.32269259745734</v>
+        <v>14.83218369289477</v>
       </c>
       <c r="E12">
-        <v>16.74057630973548</v>
+        <v>16.0098760402758</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.64314892571432</v>
+        <v>2.037653721619238</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.78850315753387</v>
+        <v>14.24041610286555</v>
       </c>
       <c r="J12">
-        <v>9.315326600755707</v>
+        <v>6.405617690342274</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.95530265898437</v>
+        <v>10.67057679034178</v>
       </c>
       <c r="O12">
-        <v>26.04205136695045</v>
+        <v>21.49963422282418</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.53037110438662</v>
+        <v>28.42336591797506</v>
       </c>
       <c r="C13">
-        <v>13.69970167672843</v>
+        <v>22.42804328335423</v>
       </c>
       <c r="D13">
-        <v>15.31705372675932</v>
+        <v>14.79851173725657</v>
       </c>
       <c r="E13">
-        <v>16.73479546304192</v>
+        <v>15.97374975685442</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.643292592162537</v>
+        <v>2.038096380079871</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.79249816487381</v>
+        <v>14.23193297458978</v>
       </c>
       <c r="J13">
-        <v>9.315251391050866</v>
+        <v>6.397853578102784</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.95826830253148</v>
+        <v>10.68104469434684</v>
       </c>
       <c r="O13">
-        <v>26.0404984538324</v>
+        <v>21.46126964813914</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.42900036235419</v>
+        <v>28.16612348941007</v>
       </c>
       <c r="C14">
-        <v>13.61193332517692</v>
+        <v>22.22286678051956</v>
       </c>
       <c r="D14">
-        <v>15.2987378027326</v>
+        <v>14.68853525506074</v>
       </c>
       <c r="E14">
-        <v>16.71602598120914</v>
+        <v>15.85577807621987</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.643763262341956</v>
+        <v>2.039541584554358</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.80567200271611</v>
+        <v>14.20496776899926</v>
       </c>
       <c r="J14">
-        <v>9.315043598203307</v>
+        <v>6.372606651078347</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.96798667617708</v>
+        <v>10.71526730135505</v>
       </c>
       <c r="O14">
-        <v>26.03562173044449</v>
+        <v>21.33655662362096</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.36666674173589</v>
+        <v>28.0076009365666</v>
       </c>
       <c r="C15">
-        <v>13.55791431755136</v>
+        <v>22.09645875121066</v>
       </c>
       <c r="D15">
-        <v>15.28757568167724</v>
+        <v>14.62104520931743</v>
       </c>
       <c r="E15">
-        <v>16.70459330705763</v>
+        <v>15.7833975680776</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.64405320913496</v>
+        <v>2.040428078276846</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.81385287286915</v>
+        <v>14.18898414203988</v>
       </c>
       <c r="J15">
-        <v>9.31494513026208</v>
+        <v>6.3571985833163</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.9739754119961</v>
+        <v>10.73629443277887</v>
       </c>
       <c r="O15">
-        <v>26.03277881272181</v>
+        <v>21.26047508777286</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.00585151959094</v>
+        <v>27.08444469471835</v>
       </c>
       <c r="C16">
-        <v>13.24445604672194</v>
+        <v>21.36075840327977</v>
       </c>
       <c r="D16">
-        <v>15.22449503873845</v>
+        <v>14.23237492066269</v>
       </c>
       <c r="E16">
-        <v>16.64007344833746</v>
+        <v>15.36680670935799</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.645740083877439</v>
+        <v>2.045529023085487</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.86243923969766</v>
+        <v>14.10537046683883</v>
       </c>
       <c r="J16">
-        <v>9.31482280185393</v>
+        <v>6.269762278428728</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.00884613476908</v>
+        <v>10.85778073628072</v>
       </c>
       <c r="O16">
-        <v>26.01869791385034</v>
+        <v>20.82920853248503</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.7813860502783</v>
+        <v>26.504866805103</v>
       </c>
       <c r="C17">
-        <v>13.0487540099274</v>
+        <v>20.89923973871961</v>
       </c>
       <c r="D17">
-        <v>15.18660031557105</v>
+        <v>13.99226446532711</v>
       </c>
       <c r="E17">
-        <v>16.6013948901076</v>
+        <v>15.10966200038858</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.646797565189925</v>
+        <v>2.048678358703324</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.8937624282218</v>
+        <v>14.06098801010854</v>
       </c>
       <c r="J17">
-        <v>9.315142475972904</v>
+        <v>6.21688845565303</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.03073121277227</v>
+        <v>10.9331861724098</v>
       </c>
       <c r="O17">
-        <v>26.01203236778381</v>
+        <v>20.56885496191595</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.65117578505883</v>
+        <v>26.16659654604436</v>
       </c>
       <c r="C18">
-        <v>12.93497001639143</v>
+        <v>20.63000254480545</v>
       </c>
       <c r="D18">
-        <v>15.16510471872181</v>
+        <v>13.85355994449328</v>
       </c>
       <c r="E18">
-        <v>16.57948478797758</v>
+        <v>14.96119494699598</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.647414142412789</v>
+        <v>2.050497725621106</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.91233442083524</v>
+        <v>14.03791644496056</v>
       </c>
       <c r="J18">
-        <v>9.315471531633332</v>
+        <v>6.186757345455246</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.04350040534816</v>
+        <v>10.97687848436217</v>
       </c>
       <c r="O18">
-        <v>26.00892330849787</v>
+        <v>20.42065612471791</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.60690340657994</v>
+        <v>26.05121639516679</v>
       </c>
       <c r="C19">
-        <v>12.89623796114702</v>
+        <v>20.5381899716494</v>
       </c>
       <c r="D19">
-        <v>15.15787877091424</v>
+        <v>13.80649581361634</v>
       </c>
       <c r="E19">
-        <v>16.57212472847307</v>
+        <v>14.91083149622563</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.647624339738014</v>
+        <v>2.051115150705328</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.91871785527238</v>
+        <v>14.03051862643306</v>
       </c>
       <c r="J19">
-        <v>9.315607891544101</v>
+        <v>6.176603598006074</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.04785503098348</v>
+        <v>10.99172699796157</v>
       </c>
       <c r="O19">
-        <v>26.00799509064076</v>
+        <v>20.37074493217813</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.80539598000489</v>
+        <v>26.56707133055358</v>
       </c>
       <c r="C20">
-        <v>13.06971393929403</v>
+        <v>20.94875994184814</v>
       </c>
       <c r="D20">
-        <v>15.19060329569241</v>
+        <v>14.01788706646459</v>
       </c>
       <c r="E20">
-        <v>16.60547754832951</v>
+        <v>15.13709430832578</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.646684131645741</v>
+        <v>2.048342296190138</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.89037046582897</v>
+        <v>14.0654565044399</v>
       </c>
       <c r="J20">
-        <v>9.315093422482345</v>
+        <v>6.222487918771321</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.02838273353168</v>
+        <v>10.92512587647275</v>
       </c>
       <c r="O20">
-        <v>26.01266690824816</v>
+        <v>20.5964097076824</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.45882586267414</v>
+        <v>28.24188041703779</v>
       </c>
       <c r="C21">
-        <v>13.63776700455522</v>
+        <v>22.28328430467937</v>
       </c>
       <c r="D21">
-        <v>15.30410580395732</v>
+        <v>14.72086437584853</v>
       </c>
       <c r="E21">
-        <v>16.7215256892471</v>
+        <v>15.89045415697697</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.643624671842124</v>
+        <v>2.039116832994281</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.80177927796361</v>
+        <v>14.21277649657873</v>
       </c>
       <c r="J21">
-        <v>9.315098628661794</v>
+        <v>6.380010521578237</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.96512466360482</v>
+        <v>10.70520177578824</v>
       </c>
       <c r="O21">
-        <v>26.03702408887069</v>
+        <v>21.37312348600977</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.87519783773749</v>
+        <v>29.29364427211383</v>
       </c>
       <c r="C22">
-        <v>13.99753725206908</v>
+        <v>23.12262684048866</v>
       </c>
       <c r="D22">
-        <v>15.38084782583802</v>
+        <v>15.1746865203263</v>
       </c>
       <c r="E22">
-        <v>16.80025637175305</v>
+        <v>16.37751083241777</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.641698946259513</v>
+        <v>2.033145622757237</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.74886614410391</v>
+        <v>14.33270432553636</v>
       </c>
       <c r="J22">
-        <v>9.316391919796445</v>
+        <v>6.485482589614104</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.92539173509194</v>
+        <v>10.56436460522968</v>
       </c>
       <c r="O22">
-        <v>26.05939751380416</v>
+        <v>21.89457176179772</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.65398827423311</v>
+        <v>28.73616978376015</v>
       </c>
       <c r="C23">
-        <v>13.8065989626392</v>
+        <v>22.67761648817977</v>
       </c>
       <c r="D23">
-        <v>15.33966044488275</v>
+        <v>14.93299543783634</v>
       </c>
       <c r="E23">
-        <v>16.75797782371305</v>
+        <v>16.11805365454201</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.642720011727442</v>
+        <v>2.036327895448966</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.77664881572104</v>
+        <v>14.26644794961322</v>
       </c>
       <c r="J23">
-        <v>9.315583804887801</v>
+        <v>6.428957647962894</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.94645093448591</v>
+        <v>10.63926468864429</v>
       </c>
       <c r="O23">
-        <v>26.04686599799426</v>
+        <v>21.61499587109817</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.79454470047507</v>
+        <v>26.53896444538345</v>
       </c>
       <c r="C24">
-        <v>13.06024191104762</v>
+        <v>20.92638402716991</v>
       </c>
       <c r="D24">
-        <v>15.18879264200356</v>
+        <v>14.0063051461982</v>
       </c>
       <c r="E24">
-        <v>16.60363075965066</v>
+        <v>15.12469412390569</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.6467353881025</v>
+        <v>2.048494202594216</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.8919022159133</v>
+        <v>14.06342870389227</v>
       </c>
       <c r="J24">
-        <v>9.315115147027047</v>
+        <v>6.219955570800822</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.02944389786452</v>
+        <v>10.92876887531895</v>
       </c>
       <c r="O24">
-        <v>26.01237778017179</v>
+        <v>20.58394759111492</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.82595023421456</v>
+        <v>23.9806316143216</v>
       </c>
       <c r="C25">
-        <v>12.20897755885062</v>
+        <v>18.89229998192872</v>
       </c>
       <c r="D25">
-        <v>15.03760228325613</v>
+        <v>12.98420457953428</v>
       </c>
       <c r="E25">
-        <v>16.45007496069634</v>
+        <v>14.03204581657484</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.651385847882736</v>
+        <v>2.061927629434392</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.03744537808064</v>
+        <v>13.93724841177671</v>
       </c>
       <c r="J25">
-        <v>9.320161162771551</v>
+        <v>6.005244543819859</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.12590749235675</v>
+        <v>11.25332657512383</v>
       </c>
       <c r="O25">
-        <v>26.00287494562365</v>
+        <v>19.53114785951885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.93010156130846</v>
+        <v>11.79603477275181</v>
       </c>
       <c r="C2">
-        <v>17.26541492144673</v>
+        <v>8.183217786507493</v>
       </c>
       <c r="D2">
-        <v>12.21507828705165</v>
+        <v>7.106858049668914</v>
       </c>
       <c r="E2">
-        <v>13.21228681245475</v>
+        <v>16.11088666111256</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.07214708177414</v>
+        <v>22.76100363094296</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.800367915105602</v>
       </c>
       <c r="I2">
-        <v>13.91431373829077</v>
+        <v>2.633877356420356</v>
       </c>
       <c r="J2">
-        <v>5.85632871707841</v>
+        <v>9.003837964541848</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.84537852747347</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.09090699356252</v>
       </c>
       <c r="N2">
-        <v>11.5028562003023</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>18.80732717984866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.30948967911011</v>
+      </c>
+      <c r="P2">
+        <v>12.39508554420989</v>
+      </c>
+      <c r="Q2">
+        <v>14.73951102752724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.43406199835688</v>
+        <v>11.06292608654162</v>
       </c>
       <c r="C3">
-        <v>16.08022332838222</v>
+        <v>7.796093435437553</v>
       </c>
       <c r="D3">
-        <v>11.6857185478865</v>
+        <v>6.622490333615444</v>
       </c>
       <c r="E3">
-        <v>12.64955062015871</v>
+        <v>15.2379139780968</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.079305365307581</v>
+        <v>22.26820966317015</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.611499217531689</v>
       </c>
       <c r="I3">
-        <v>13.9374079019602</v>
+        <v>2.505276214182939</v>
       </c>
       <c r="J3">
-        <v>5.761136688305449</v>
+        <v>9.001409474305618</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.87162293594009</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.50424006398103</v>
       </c>
       <c r="N3">
-        <v>11.67860306400553</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>18.34909414422499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.52409289269283</v>
+      </c>
+      <c r="P3">
+        <v>12.52737224677777</v>
+      </c>
+      <c r="Q3">
+        <v>14.63329629270009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.46229341728689</v>
+        <v>10.58446047127108</v>
       </c>
       <c r="C4">
-        <v>15.311114461704</v>
+        <v>7.55072798825324</v>
       </c>
       <c r="D4">
-        <v>11.35767044898741</v>
+        <v>6.307676970821591</v>
       </c>
       <c r="E4">
-        <v>12.30152325417745</v>
+        <v>14.67504498241761</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.08382353595813</v>
+        <v>21.96972501865184</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.631677178946412</v>
       </c>
       <c r="I4">
-        <v>13.96898707727672</v>
+        <v>2.521597834333838</v>
       </c>
       <c r="J4">
-        <v>5.705519023214977</v>
+        <v>9.002496093002879</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.89111249056904</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.12583405753568</v>
       </c>
       <c r="N4">
-        <v>11.78981443356462</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>18.08373564084016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.01827909383988</v>
+      </c>
+      <c r="P4">
+        <v>12.61004418111852</v>
+      </c>
+      <c r="Q4">
+        <v>14.57286254283114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.05281149700215</v>
+        <v>10.37752369520585</v>
       </c>
       <c r="C5">
-        <v>14.98719767054889</v>
+        <v>7.456001844074015</v>
       </c>
       <c r="D5">
-        <v>11.22340429855155</v>
+        <v>6.1906200727331</v>
       </c>
       <c r="E5">
-        <v>12.15925326486368</v>
+        <v>14.43875209173378</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.085696785233403</v>
+        <v>21.8385562610517</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.683210838324728</v>
       </c>
       <c r="I5">
-        <v>13.98598723795417</v>
+        <v>2.560532091437606</v>
       </c>
       <c r="J5">
-        <v>5.683566849341053</v>
+        <v>9.001882220722026</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.89538325393975</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.967077226953002</v>
       </c>
       <c r="N5">
-        <v>11.83596890429827</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>17.97962562505915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.80631386289792</v>
+      </c>
+      <c r="P5">
+        <v>12.6436875416691</v>
+      </c>
+      <c r="Q5">
+        <v>14.54510559275184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.98400033980569</v>
+        <v>10.33680790243461</v>
       </c>
       <c r="C6">
-        <v>14.93277488798397</v>
+        <v>7.448906709983648</v>
       </c>
       <c r="D6">
-        <v>11.20107981788525</v>
+        <v>6.171680369567973</v>
       </c>
       <c r="E6">
-        <v>12.1356083386424</v>
+        <v>14.39878612475018</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.08600980518489</v>
+        <v>21.80378548455219</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.692015283739903</v>
       </c>
       <c r="I6">
-        <v>13.98905257677722</v>
+        <v>2.571161954542995</v>
       </c>
       <c r="J6">
-        <v>5.679964739729761</v>
+        <v>8.999750211912911</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.89064441956891</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.940375939713929</v>
       </c>
       <c r="N6">
-        <v>11.84368339727779</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>17.96258121246314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.77072224126007</v>
+      </c>
+      <c r="P6">
+        <v>12.64878810738074</v>
+      </c>
+      <c r="Q6">
+        <v>14.53528666322907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.45682570783075</v>
+        <v>10.56587402469167</v>
       </c>
       <c r="C7">
-        <v>15.30678863147726</v>
+        <v>7.572972550030826</v>
       </c>
       <c r="D7">
-        <v>11.35586180407974</v>
+        <v>6.305849885809221</v>
       </c>
       <c r="E7">
-        <v>12.29960609678343</v>
+        <v>14.67100625994186</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.083848667989732</v>
+        <v>21.9325353802369</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.632845854197925</v>
       </c>
       <c r="I7">
-        <v>13.96919993879038</v>
+        <v>2.532984067583672</v>
       </c>
       <c r="J7">
-        <v>5.705220083529589</v>
+        <v>8.996849267170786</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.87616450172196</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.12352320703686</v>
       </c>
       <c r="N7">
-        <v>11.79043350155674</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>18.08231528217531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.01531344301265</v>
+      </c>
+      <c r="P7">
+        <v>12.60915290723421</v>
+      </c>
+      <c r="Q7">
+        <v>14.55810734529334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.42524508954665</v>
+        <v>11.52971744127442</v>
       </c>
       <c r="C8">
-        <v>16.86529793605142</v>
+        <v>8.080880353627453</v>
       </c>
       <c r="D8">
-        <v>12.03327941900023</v>
+        <v>6.943370581236207</v>
       </c>
       <c r="E8">
-        <v>13.01887807230386</v>
+        <v>15.81446890300838</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.074590446137155</v>
+        <v>22.54473757548033</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.735561673673938</v>
       </c>
       <c r="I8">
-        <v>13.91851767230949</v>
+        <v>2.593083117813838</v>
       </c>
       <c r="J8">
-        <v>5.822919651355529</v>
+        <v>8.995056320032575</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.83394206166368</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.89221743190286</v>
       </c>
       <c r="N8">
-        <v>11.56277089076944</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>18.64601298759643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.04348506069156</v>
+      </c>
+      <c r="P8">
+        <v>12.43882668380414</v>
+      </c>
+      <c r="Q8">
+        <v>14.68310879694787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.86801079123586</v>
+        <v>13.22028883286102</v>
       </c>
       <c r="C9">
-        <v>19.59727123389405</v>
+        <v>8.975165907047977</v>
       </c>
       <c r="D9">
-        <v>13.33130907707671</v>
+        <v>8.056626725374953</v>
       </c>
       <c r="E9">
-        <v>14.40272336009289</v>
+        <v>17.84151694185529</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.057355427075884</v>
+        <v>23.83374128104735</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.183790508972802</v>
       </c>
       <c r="I9">
-        <v>13.96821841442937</v>
+        <v>2.898473772502848</v>
       </c>
       <c r="J9">
-        <v>6.076144470484691</v>
+        <v>9.022623782206111</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.80569094793232</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.25294972718627</v>
       </c>
       <c r="N9">
-        <v>11.14236195854481</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>19.8778435432406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.86861242166401</v>
+      </c>
+      <c r="P9">
+        <v>12.11791132849219</v>
+      </c>
+      <c r="Q9">
+        <v>14.99207279477392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.14991597199148</v>
+        <v>14.32503401362353</v>
       </c>
       <c r="C10">
-        <v>21.41291095920277</v>
+        <v>9.588979621856634</v>
       </c>
       <c r="D10">
-        <v>14.25969074685301</v>
+        <v>8.792058022596143</v>
       </c>
       <c r="E10">
-        <v>15.39607097461413</v>
+        <v>18.65622398184609</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.045170698410289</v>
+        <v>24.61671531947858</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.472028798082538</v>
       </c>
       <c r="I10">
-        <v>14.11077371824888</v>
+        <v>3.109878354597575</v>
       </c>
       <c r="J10">
-        <v>6.275833609301068</v>
+        <v>9.027220461768181</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.74841274893132</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.15916883625113</v>
       </c>
       <c r="N10">
-        <v>10.84922005148055</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>20.85912655358935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.81167161970421</v>
+      </c>
+      <c r="P10">
+        <v>11.88563211594008</v>
+      </c>
+      <c r="Q10">
+        <v>15.16910966020721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.13586580547642</v>
+        <v>14.82899521909057</v>
       </c>
       <c r="C11">
-        <v>22.19873716417328</v>
+        <v>9.779420746183142</v>
       </c>
       <c r="D11">
-        <v>14.67563656597419</v>
+        <v>9.105175171017068</v>
       </c>
       <c r="E11">
-        <v>15.84194377631012</v>
+        <v>14.49427141967355</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.039711033091351</v>
+        <v>23.55616796804604</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.158752493059866</v>
       </c>
       <c r="I11">
-        <v>14.20187973512803</v>
+        <v>3.176849543160179</v>
       </c>
       <c r="J11">
-        <v>6.369656814590299</v>
+        <v>8.791193374434817</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.29156907772406</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.54113115831367</v>
       </c>
       <c r="N11">
-        <v>10.71928449355448</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>21.32198919758942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.85207843115171</v>
+      </c>
+      <c r="P11">
+        <v>11.77528398785809</v>
+      </c>
+      <c r="Q11">
+        <v>14.64830660612347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.5018654547647</v>
+        <v>15.05084336335372</v>
       </c>
       <c r="C12">
-        <v>22.49066640561212</v>
+        <v>9.786088115539233</v>
       </c>
       <c r="D12">
-        <v>14.83218369289477</v>
+        <v>9.219906250728604</v>
       </c>
       <c r="E12">
-        <v>16.0098760402758</v>
+        <v>11.03488523456646</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.037653721619238</v>
+        <v>22.52388887378327</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.311495561064383</v>
       </c>
       <c r="I12">
-        <v>14.24041610286555</v>
+        <v>3.18871786004091</v>
       </c>
       <c r="J12">
-        <v>6.405617690342274</v>
+        <v>8.595292449974993</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.93890247605863</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.6805035891664</v>
       </c>
       <c r="N12">
-        <v>10.67057679034178</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>21.49963422282418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.99694733861661</v>
+      </c>
+      <c r="P12">
+        <v>11.74731180121452</v>
+      </c>
+      <c r="Q12">
+        <v>14.18278683820563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.42336591797506</v>
+        <v>15.05789005414338</v>
       </c>
       <c r="C13">
-        <v>22.42804328335423</v>
+        <v>9.6817803339859</v>
       </c>
       <c r="D13">
-        <v>14.79851173725657</v>
+        <v>9.192555672910945</v>
       </c>
       <c r="E13">
-        <v>15.97374975685442</v>
+        <v>8.133468377719906</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.038096380079871</v>
+        <v>21.38227333731675</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.583251110796927</v>
       </c>
       <c r="I13">
-        <v>14.23193297458978</v>
+        <v>3.163078904902191</v>
       </c>
       <c r="J13">
-        <v>6.397853578102784</v>
+        <v>8.409356716082126</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.62229180211465</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.64554596768492</v>
       </c>
       <c r="N13">
-        <v>10.68104469434684</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>21.46126964813914</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.06389896078779</v>
+      </c>
+      <c r="P13">
+        <v>11.77616248717369</v>
+      </c>
+      <c r="Q13">
+        <v>13.7068334354574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.16612348941007</v>
+        <v>14.96234302574598</v>
       </c>
       <c r="C14">
-        <v>22.22286678051956</v>
+        <v>9.563699697388619</v>
       </c>
       <c r="D14">
-        <v>14.68853525506074</v>
+        <v>9.108817175399961</v>
       </c>
       <c r="E14">
-        <v>15.85577807621987</v>
+        <v>6.823627767370533</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.039541584554358</v>
+        <v>20.51851789801827</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.51173332159378</v>
       </c>
       <c r="I14">
-        <v>14.20496776899926</v>
+        <v>3.129476904149352</v>
       </c>
       <c r="J14">
-        <v>6.372606651078347</v>
+        <v>8.282792775252958</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.41531436094234</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.54195479937911</v>
       </c>
       <c r="N14">
-        <v>10.71526730135505</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>21.33655662362096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.663195677854244</v>
+      </c>
+      <c r="P14">
+        <v>11.82250935431385</v>
+      </c>
+      <c r="Q14">
+        <v>13.3655533976467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.0076009365666</v>
+        <v>14.88766204948362</v>
       </c>
       <c r="C15">
-        <v>22.09645875121066</v>
+        <v>9.518209869155649</v>
       </c>
       <c r="D15">
-        <v>14.62104520931743</v>
+        <v>9.057687957873156</v>
       </c>
       <c r="E15">
-        <v>15.7833975680776</v>
+        <v>6.656479064054794</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.040428078276846</v>
+        <v>20.27489696562256</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.724198294283113</v>
       </c>
       <c r="I15">
-        <v>14.18898414203988</v>
+        <v>3.114189107635097</v>
       </c>
       <c r="J15">
-        <v>6.3571985833163</v>
+        <v>8.252967735906365</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.36854864658244</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.47879240116232</v>
       </c>
       <c r="N15">
-        <v>10.73629443277887</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>21.26047508777286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.302512254668148</v>
+      </c>
+      <c r="P15">
+        <v>11.84389887614052</v>
+      </c>
+      <c r="Q15">
+        <v>13.27696033287381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.08444469471835</v>
+        <v>14.43005846469116</v>
       </c>
       <c r="C16">
-        <v>21.36075840327977</v>
+        <v>9.292205790095597</v>
       </c>
       <c r="D16">
-        <v>14.23237492066269</v>
+        <v>8.761436846286413</v>
       </c>
       <c r="E16">
-        <v>15.36680670935799</v>
+        <v>6.660089570820536</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.045529023085487</v>
+        <v>20.10754552903927</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.461540628391386</v>
       </c>
       <c r="I16">
-        <v>14.10537046683883</v>
+        <v>3.03184964418658</v>
       </c>
       <c r="J16">
-        <v>6.269762278428728</v>
+        <v>8.284307452750252</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.44915411830825</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.11247176851323</v>
       </c>
       <c r="N16">
-        <v>10.85778073628072</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>20.82920853248503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.166403794597493</v>
+      </c>
+      <c r="P16">
+        <v>11.92770267556866</v>
+      </c>
+      <c r="Q16">
+        <v>13.28194600407912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.504866805103</v>
+        <v>14.12337790124708</v>
       </c>
       <c r="C17">
-        <v>20.89923973871961</v>
+        <v>9.181973796820033</v>
       </c>
       <c r="D17">
-        <v>13.99226446532711</v>
+        <v>8.57584375633968</v>
       </c>
       <c r="E17">
-        <v>15.10966200038858</v>
+        <v>7.180896978702384</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.048678358703324</v>
+        <v>20.45000792944093</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.718511411246082</v>
       </c>
       <c r="I17">
-        <v>14.06098801010854</v>
+        <v>2.986385803431647</v>
       </c>
       <c r="J17">
-        <v>6.21688845565303</v>
+        <v>8.375875769366175</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.61989988910163</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.88315244401342</v>
       </c>
       <c r="N17">
-        <v>10.9331861724098</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>20.56885496191595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.832160537498885</v>
+      </c>
+      <c r="P17">
+        <v>11.96846620708212</v>
+      </c>
+      <c r="Q17">
+        <v>13.4689033405603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.16659654604436</v>
+        <v>13.93006335299493</v>
       </c>
       <c r="C18">
-        <v>20.63000254480545</v>
+        <v>9.145638983843723</v>
       </c>
       <c r="D18">
-        <v>13.85355994449328</v>
+        <v>8.468550437543739</v>
       </c>
       <c r="E18">
-        <v>14.96119494699598</v>
+        <v>9.077098705074588</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.050497725621106</v>
+        <v>21.28906759635953</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.520401316239824</v>
       </c>
       <c r="I18">
-        <v>14.03791644496056</v>
+        <v>2.965861626806978</v>
       </c>
       <c r="J18">
-        <v>6.186757345455246</v>
+        <v>8.532570468842472</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.89930720560583</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.75135412231642</v>
       </c>
       <c r="N18">
-        <v>10.97687848436217</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>20.42065612471791</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.29057114062984</v>
+      </c>
+      <c r="P18">
+        <v>11.98303905136834</v>
+      </c>
+      <c r="Q18">
+        <v>13.84141061885799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.05121639516679</v>
+        <v>13.82233830594661</v>
       </c>
       <c r="C19">
-        <v>20.5381899716494</v>
+        <v>9.211856101069523</v>
       </c>
       <c r="D19">
-        <v>13.80649581361634</v>
+        <v>8.433682158461751</v>
       </c>
       <c r="E19">
-        <v>14.91083149622563</v>
+        <v>12.45367235612481</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.051115150705328</v>
+        <v>22.39850066240327</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.211704703317233</v>
       </c>
       <c r="I19">
-        <v>14.03051862643306</v>
+        <v>2.977637333169137</v>
       </c>
       <c r="J19">
-        <v>6.176603598006074</v>
+        <v>8.720596315625304</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.22544889253333</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.71049470912499</v>
       </c>
       <c r="N19">
-        <v>10.99172699796157</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>20.37074493217813</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.28131410158841</v>
+      </c>
+      <c r="P19">
+        <v>11.98540641208344</v>
+      </c>
+      <c r="Q19">
+        <v>14.310898792679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.56707133055358</v>
+        <v>14.00586772506849</v>
       </c>
       <c r="C20">
-        <v>20.94875994184814</v>
+        <v>9.491197654651987</v>
       </c>
       <c r="D20">
-        <v>14.01788706646459</v>
+        <v>8.604193269851807</v>
       </c>
       <c r="E20">
-        <v>15.13709430832578</v>
+        <v>18.42032159686899</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.048342296190138</v>
+        <v>24.30432613662563</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.394097329172306</v>
       </c>
       <c r="I20">
-        <v>14.0654565044399</v>
+        <v>3.064365417460357</v>
       </c>
       <c r="J20">
-        <v>6.222487918771321</v>
+        <v>9.006857348850318</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.71427129633695</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.92702717679836</v>
       </c>
       <c r="N20">
-        <v>10.92512587647275</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>20.5964097076824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.55699900507348</v>
+      </c>
+      <c r="P20">
+        <v>11.94345358650336</v>
+      </c>
+      <c r="Q20">
+        <v>15.07552237501192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.24188041703779</v>
+        <v>14.81203566417242</v>
       </c>
       <c r="C21">
-        <v>22.28328430467937</v>
+        <v>9.953752769626872</v>
       </c>
       <c r="D21">
-        <v>14.72086437584853</v>
+        <v>9.143781817140873</v>
       </c>
       <c r="E21">
-        <v>15.89045415697697</v>
+        <v>19.84276299764285</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.039116832994281</v>
+        <v>25.17654354295754</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.643504846616985</v>
       </c>
       <c r="I21">
-        <v>14.21277649657873</v>
+        <v>3.227507181353407</v>
       </c>
       <c r="J21">
-        <v>6.380010521578237</v>
+        <v>9.060107195099278</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.76044068481161</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.59491386316779</v>
       </c>
       <c r="N21">
-        <v>10.70520177578824</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>21.37312348600977</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.67351101917615</v>
+      </c>
+      <c r="P21">
+        <v>11.77123602807906</v>
+      </c>
+      <c r="Q21">
+        <v>15.3333333990173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.29364427211383</v>
+        <v>15.33181432791595</v>
       </c>
       <c r="C22">
-        <v>23.12262684048866</v>
+        <v>10.21825172740809</v>
       </c>
       <c r="D22">
-        <v>15.1746865203263</v>
+        <v>9.481828486586334</v>
       </c>
       <c r="E22">
-        <v>16.37751083241777</v>
+        <v>20.46926160291028</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.033145622757237</v>
+        <v>25.70415794718956</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.791976185788551</v>
       </c>
       <c r="I22">
-        <v>14.33270432553636</v>
+        <v>3.326717134613929</v>
       </c>
       <c r="J22">
-        <v>6.485482589614104</v>
+        <v>9.091059029424544</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.78911293695476</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.01380507513085</v>
       </c>
       <c r="N22">
-        <v>10.56436460522968</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>21.89457176179772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.23745182569611</v>
+      </c>
+      <c r="P22">
+        <v>11.65940880823972</v>
+      </c>
+      <c r="Q22">
+        <v>15.48908169634534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.73616978376015</v>
+        <v>15.07037094371566</v>
       </c>
       <c r="C23">
-        <v>22.67761648817977</v>
+        <v>10.05572208386156</v>
       </c>
       <c r="D23">
-        <v>14.93299543783634</v>
+        <v>9.302797349713702</v>
       </c>
       <c r="E23">
-        <v>16.11805365454201</v>
+        <v>20.13787052179552</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.036327895448966</v>
+        <v>25.45860893003348</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.713471166905838</v>
       </c>
       <c r="I23">
-        <v>14.26644794961322</v>
+        <v>3.270314546224852</v>
       </c>
       <c r="J23">
-        <v>6.428957647962894</v>
+        <v>9.080675154721524</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.79072477052498</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.7919606147189</v>
       </c>
       <c r="N23">
-        <v>10.63926468864429</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>21.61499587109817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.93866505004627</v>
+      </c>
+      <c r="P23">
+        <v>11.7199142843865</v>
+      </c>
+      <c r="Q23">
+        <v>15.4213000145808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.53896444538345</v>
+        <v>14.01006650307617</v>
       </c>
       <c r="C24">
-        <v>20.92638402716991</v>
+        <v>9.458416951606017</v>
       </c>
       <c r="D24">
-        <v>14.0063051461982</v>
+        <v>8.595607297086476</v>
       </c>
       <c r="E24">
-        <v>15.12469412390569</v>
+        <v>18.8314058255</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.048494202594216</v>
+        <v>24.47387241309379</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.40878933246976</v>
       </c>
       <c r="I24">
-        <v>14.06342870389227</v>
+        <v>3.058528317008364</v>
       </c>
       <c r="J24">
-        <v>6.219955570800822</v>
+        <v>9.037098011324957</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.77795186859957</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.91711365776459</v>
       </c>
       <c r="N24">
-        <v>10.92876887531895</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>20.58394759111492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.76142215898187</v>
+      </c>
+      <c r="P24">
+        <v>11.94956485691187</v>
+      </c>
+      <c r="Q24">
+        <v>15.1495825900335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.9806316143216</v>
+        <v>12.76292825786958</v>
       </c>
       <c r="C25">
-        <v>18.89229998192872</v>
+        <v>8.777760542553969</v>
       </c>
       <c r="D25">
-        <v>12.98420457953428</v>
+        <v>7.769861806402137</v>
       </c>
       <c r="E25">
-        <v>14.03204581657484</v>
+        <v>17.31548950740432</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.061927629434392</v>
+        <v>23.42318122844752</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.065349128951409</v>
       </c>
       <c r="I25">
-        <v>13.93724841177671</v>
+        <v>2.822646099895708</v>
       </c>
       <c r="J25">
-        <v>6.005244543819859</v>
+        <v>9.002816541550848</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.78338355677843</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.90060595639872</v>
       </c>
       <c r="N25">
-        <v>11.25332657512383</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>19.53114785951885</v>
+        <v>15.39564835540704</v>
+      </c>
+      <c r="P25">
+        <v>12.20179587622815</v>
+      </c>
+      <c r="Q25">
+        <v>14.87915651901778</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.79603477275181</v>
+        <v>11.60428538361434</v>
       </c>
       <c r="C2">
-        <v>8.183217786507493</v>
+        <v>8.36480280178017</v>
       </c>
       <c r="D2">
-        <v>7.106858049668914</v>
+        <v>7.107840252832977</v>
       </c>
       <c r="E2">
-        <v>16.11088666111256</v>
+        <v>16.11882420920721</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.76100363094296</v>
+        <v>21.46906679868653</v>
       </c>
       <c r="H2">
-        <v>1.800367915105602</v>
+        <v>1.809540944312189</v>
       </c>
       <c r="I2">
-        <v>2.633877356420356</v>
+        <v>2.686050308322748</v>
       </c>
       <c r="J2">
-        <v>9.003837964541848</v>
+        <v>9.325099011729153</v>
       </c>
       <c r="K2">
-        <v>13.84537852747347</v>
+        <v>13.44025409921123</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.75964673730581</v>
       </c>
       <c r="M2">
-        <v>11.09090699356252</v>
+        <v>8.146981376383012</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.30948967911011</v>
+        <v>11.08744636372619</v>
       </c>
       <c r="P2">
-        <v>12.39508554420989</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.73951102752724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.31958144004755</v>
+      </c>
+      <c r="R2">
+        <v>12.32517740482489</v>
+      </c>
+      <c r="S2">
+        <v>14.4405966723056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.06292608654162</v>
+        <v>10.92287466807485</v>
       </c>
       <c r="C3">
-        <v>7.796093435437553</v>
+        <v>7.887224150577015</v>
       </c>
       <c r="D3">
-        <v>6.622490333615444</v>
+        <v>6.624123528424023</v>
       </c>
       <c r="E3">
-        <v>15.2379139780968</v>
+        <v>15.25609167052075</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.26820966317015</v>
+        <v>21.06933946951133</v>
       </c>
       <c r="H3">
-        <v>1.611499217531689</v>
+        <v>1.626319040907521</v>
       </c>
       <c r="I3">
-        <v>2.505276214182939</v>
+        <v>2.571422638044793</v>
       </c>
       <c r="J3">
-        <v>9.001409474305618</v>
+        <v>9.305244667949312</v>
       </c>
       <c r="K3">
-        <v>13.87162293594009</v>
+        <v>13.49353142710796</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.89658077145326</v>
       </c>
       <c r="M3">
-        <v>10.50424006398103</v>
+        <v>8.103143710128895</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.52409289269283</v>
+        <v>10.50520096599968</v>
       </c>
       <c r="P3">
-        <v>12.52737224677777</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.63329629270009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.53658923784473</v>
+      </c>
+      <c r="R3">
+        <v>12.44972450327115</v>
+      </c>
+      <c r="S3">
+        <v>14.36503431814681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.58446047127108</v>
+        <v>10.47827679276819</v>
       </c>
       <c r="C4">
-        <v>7.55072798825324</v>
+        <v>7.583419794914927</v>
       </c>
       <c r="D4">
-        <v>6.307676970821591</v>
+        <v>6.309662185212595</v>
       </c>
       <c r="E4">
-        <v>14.67504498241761</v>
+        <v>14.70013631520224</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.96972501865184</v>
+        <v>20.83003852357626</v>
       </c>
       <c r="H4">
-        <v>1.631677178946412</v>
+        <v>1.612838719271075</v>
       </c>
       <c r="I4">
-        <v>2.521597834333838</v>
+        <v>2.499107650448971</v>
       </c>
       <c r="J4">
-        <v>9.002496093002879</v>
+        <v>9.2938943128128</v>
       </c>
       <c r="K4">
-        <v>13.89111249056904</v>
+        <v>13.52847331247087</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.98245269212232</v>
       </c>
       <c r="M4">
-        <v>10.12583405753568</v>
+        <v>8.095563650648236</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.01827909383988</v>
+        <v>10.12969044654787</v>
       </c>
       <c r="P4">
-        <v>12.61004418111852</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.57286254283114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.03232354996046</v>
+      </c>
+      <c r="R4">
+        <v>12.52775973938752</v>
+      </c>
+      <c r="S4">
+        <v>14.32248813049658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.37752369520585</v>
+        <v>10.28573896467069</v>
       </c>
       <c r="C5">
-        <v>7.456001844074015</v>
+        <v>7.464757744366661</v>
       </c>
       <c r="D5">
-        <v>6.1906200727331</v>
+        <v>6.192115540912987</v>
       </c>
       <c r="E5">
-        <v>14.43875209173378</v>
+        <v>14.46683500277035</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.8385562610517</v>
+        <v>20.72332524450467</v>
       </c>
       <c r="H5">
-        <v>1.683210838324728</v>
+        <v>1.662853224016284</v>
       </c>
       <c r="I5">
-        <v>2.560532091437606</v>
+        <v>2.484574851983226</v>
       </c>
       <c r="J5">
-        <v>9.001882220722026</v>
+        <v>9.287788303599449</v>
       </c>
       <c r="K5">
-        <v>13.89538325393975</v>
+        <v>13.53887859649439</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.01382304017078</v>
       </c>
       <c r="M5">
-        <v>9.967077226953002</v>
+        <v>8.09488911057074</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.80631386289792</v>
+        <v>9.972169909926665</v>
       </c>
       <c r="P5">
-        <v>12.6436875416691</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.54510559275184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.82101174942193</v>
+      </c>
+      <c r="R5">
+        <v>12.55960549229087</v>
+      </c>
+      <c r="S5">
+        <v>14.30181742714143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.33680790243461</v>
+        <v>10.24751255437923</v>
       </c>
       <c r="C6">
-        <v>7.448906709983648</v>
+        <v>7.454356805253588</v>
       </c>
       <c r="D6">
-        <v>6.171680369567973</v>
+        <v>6.173186689139714</v>
       </c>
       <c r="E6">
-        <v>14.39878612475018</v>
+        <v>14.42738609432141</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.80378548455219</v>
+        <v>20.69251481978697</v>
       </c>
       <c r="H6">
-        <v>1.692015283739903</v>
+        <v>1.671397619054733</v>
       </c>
       <c r="I6">
-        <v>2.571161954542995</v>
+        <v>2.495397019944252</v>
       </c>
       <c r="J6">
-        <v>8.999750211912911</v>
+        <v>9.284721033857892</v>
       </c>
       <c r="K6">
-        <v>13.89064441956891</v>
+        <v>13.53529147200925</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.01408461949345</v>
       </c>
       <c r="M6">
-        <v>9.940375939713929</v>
+        <v>8.092050109796277</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.77072224126007</v>
+        <v>9.945685219214829</v>
       </c>
       <c r="P6">
-        <v>12.64878810738074</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.53528666322907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.78553198872145</v>
+      </c>
+      <c r="R6">
+        <v>12.56449001231267</v>
+      </c>
+      <c r="S6">
+        <v>14.29320814961072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.56587402469167</v>
+        <v>10.4573838075444</v>
       </c>
       <c r="C7">
-        <v>7.572972550030826</v>
+        <v>7.600973219509595</v>
       </c>
       <c r="D7">
-        <v>6.305849885809221</v>
+        <v>6.307796628487878</v>
       </c>
       <c r="E7">
-        <v>14.67100625994186</v>
+        <v>14.69733567619515</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.9325353802369</v>
+        <v>20.87651198901779</v>
       </c>
       <c r="H7">
-        <v>1.632845854197925</v>
+        <v>1.614312182760442</v>
       </c>
       <c r="I7">
-        <v>2.532984067583672</v>
+        <v>2.502009596578913</v>
       </c>
       <c r="J7">
-        <v>8.996849267170786</v>
+        <v>9.252638716366858</v>
       </c>
       <c r="K7">
-        <v>13.87616450172196</v>
+        <v>13.50877667371846</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.96483254821357</v>
       </c>
       <c r="M7">
-        <v>10.12352320703686</v>
+        <v>8.083714577698215</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.01531344301265</v>
+        <v>10.1236235942395</v>
       </c>
       <c r="P7">
-        <v>12.60915290723421</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.55810734529334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.02745933729471</v>
+      </c>
+      <c r="R7">
+        <v>12.52665025058216</v>
+      </c>
+      <c r="S7">
+        <v>14.2989921511194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.52971744127442</v>
+        <v>11.34731936277853</v>
       </c>
       <c r="C8">
-        <v>8.080880353627453</v>
+        <v>8.214583846196161</v>
       </c>
       <c r="D8">
-        <v>6.943370581236207</v>
+        <v>6.944446717912419</v>
       </c>
       <c r="E8">
-        <v>15.81446890300838</v>
+        <v>15.82959715693525</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.54473757548033</v>
+        <v>21.55675207890781</v>
       </c>
       <c r="H8">
-        <v>1.735561673673938</v>
+        <v>1.745653479112951</v>
       </c>
       <c r="I8">
-        <v>2.593083117813838</v>
+        <v>2.649743062390376</v>
       </c>
       <c r="J8">
-        <v>8.995056320032575</v>
+        <v>9.19483347289742</v>
       </c>
       <c r="K8">
-        <v>13.83394206166368</v>
+        <v>13.42180283606093</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.77603563031407</v>
       </c>
       <c r="M8">
-        <v>10.89221743190286</v>
+        <v>8.10257730100059</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.04348506069156</v>
+        <v>10.8784422161093</v>
       </c>
       <c r="P8">
-        <v>12.43882668380414</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.68310879694787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.04847109730009</v>
+      </c>
+      <c r="R8">
+        <v>12.36547908697543</v>
+      </c>
+      <c r="S8">
+        <v>14.36572121641297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.22028883286102</v>
+        <v>12.91897779201797</v>
       </c>
       <c r="C9">
-        <v>8.975165907047977</v>
+        <v>9.312506670527636</v>
       </c>
       <c r="D9">
-        <v>8.056626725374953</v>
+        <v>8.055728524685792</v>
       </c>
       <c r="E9">
-        <v>17.84151694185529</v>
+        <v>17.83488704619591</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>23.83374128104735</v>
+        <v>22.68738463638497</v>
       </c>
       <c r="H9">
-        <v>2.183790508972802</v>
+        <v>2.180109019990462</v>
       </c>
       <c r="I9">
-        <v>2.898473772502848</v>
+        <v>2.921096998472038</v>
       </c>
       <c r="J9">
-        <v>9.022623782206111</v>
+        <v>9.224920548944553</v>
       </c>
       <c r="K9">
-        <v>13.80569094793232</v>
+        <v>13.31457658282402</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.45824403216739</v>
       </c>
       <c r="M9">
-        <v>12.25294972718627</v>
+        <v>8.321019023506638</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.86861242166401</v>
+        <v>12.22715271474079</v>
       </c>
       <c r="P9">
-        <v>12.11791132849219</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.99207279477392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.86703125496748</v>
+      </c>
+      <c r="R9">
+        <v>12.06461000801628</v>
+      </c>
+      <c r="S9">
+        <v>14.58587731729895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.32503401362353</v>
+        <v>13.93766098683247</v>
       </c>
       <c r="C10">
-        <v>9.588979621856634</v>
+        <v>10.02579674598287</v>
       </c>
       <c r="D10">
-        <v>8.792058022596143</v>
+        <v>8.789174723615746</v>
       </c>
       <c r="E10">
-        <v>18.65622398184609</v>
+        <v>18.64168118934827</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.61671531947858</v>
+        <v>23.81950972474394</v>
       </c>
       <c r="H10">
-        <v>2.472028798082538</v>
+        <v>2.457378621748854</v>
       </c>
       <c r="I10">
-        <v>3.109878354597575</v>
+        <v>3.108189518370688</v>
       </c>
       <c r="J10">
-        <v>9.027220461768181</v>
+        <v>9.032891842667116</v>
       </c>
       <c r="K10">
-        <v>13.74841274893132</v>
+        <v>13.17113003772</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.18076680425349</v>
       </c>
       <c r="M10">
-        <v>13.15916883625113</v>
+        <v>8.500346083465706</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.81167161970421</v>
+        <v>13.10767122920857</v>
       </c>
       <c r="P10">
-        <v>11.88563211594008</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.16910966020721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.796848128253</v>
+      </c>
+      <c r="R10">
+        <v>11.84993813657023</v>
+      </c>
+      <c r="S10">
+        <v>14.64989207643432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.82899521909057</v>
+        <v>14.41596430349981</v>
       </c>
       <c r="C11">
-        <v>9.779420746183142</v>
+        <v>10.15587407951755</v>
       </c>
       <c r="D11">
-        <v>9.105175171017068</v>
+        <v>9.101175290426879</v>
       </c>
       <c r="E11">
-        <v>14.49427141967355</v>
+        <v>14.48089548067733</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.55616796804604</v>
+        <v>23.74900327019023</v>
       </c>
       <c r="H11">
-        <v>3.158752493059866</v>
+        <v>3.143664466545999</v>
       </c>
       <c r="I11">
-        <v>3.176849543160179</v>
+        <v>3.166668103492563</v>
       </c>
       <c r="J11">
-        <v>8.791193374434817</v>
+        <v>8.46276537283434</v>
       </c>
       <c r="K11">
-        <v>13.29156907772406</v>
+        <v>12.6903433083786</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.78788792136621</v>
       </c>
       <c r="M11">
-        <v>13.54113115831367</v>
+        <v>8.216960188010008</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.85207843115171</v>
+        <v>13.44946359270405</v>
       </c>
       <c r="P11">
-        <v>11.77528398785809</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.64830660612347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.81839600497887</v>
+      </c>
+      <c r="R11">
+        <v>11.77338493137111</v>
+      </c>
+      <c r="S11">
+        <v>14.04425599342657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.05084336335372</v>
+        <v>14.64083926061567</v>
       </c>
       <c r="C12">
-        <v>9.786088115539233</v>
+        <v>10.10715231601283</v>
       </c>
       <c r="D12">
-        <v>9.219906250728604</v>
+        <v>9.215545096107194</v>
       </c>
       <c r="E12">
-        <v>11.03488523456646</v>
+        <v>11.01284419686219</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>22.52388887378327</v>
+        <v>23.20340001899698</v>
       </c>
       <c r="H12">
-        <v>4.311495561064383</v>
+        <v>4.300060162994331</v>
       </c>
       <c r="I12">
-        <v>3.18871786004091</v>
+        <v>3.17555242467331</v>
       </c>
       <c r="J12">
-        <v>8.595292449974993</v>
+        <v>8.170546086317309</v>
       </c>
       <c r="K12">
-        <v>12.93890247605863</v>
+        <v>12.35680019580273</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.55208610862008</v>
       </c>
       <c r="M12">
-        <v>13.6805035891664</v>
+        <v>7.963627627206482</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.99694733861661</v>
+        <v>13.57061889941453</v>
       </c>
       <c r="P12">
-        <v>11.74731180121452</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.18278683820563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.9556861364135</v>
+      </c>
+      <c r="R12">
+        <v>11.7713636167608</v>
+      </c>
+      <c r="S12">
+        <v>13.56475751612195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.05789005414338</v>
+        <v>14.678567190526</v>
       </c>
       <c r="C13">
-        <v>9.6817803339859</v>
+        <v>9.960757574459688</v>
       </c>
       <c r="D13">
-        <v>9.192555672910945</v>
+        <v>9.188519846816234</v>
       </c>
       <c r="E13">
-        <v>8.133468377719906</v>
+        <v>8.091562384766668</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>21.38227333731675</v>
+        <v>21.99305064496322</v>
       </c>
       <c r="H13">
-        <v>5.583251110796927</v>
+        <v>5.575505104941306</v>
       </c>
       <c r="I13">
-        <v>3.163078904902191</v>
+        <v>3.153207676606707</v>
       </c>
       <c r="J13">
-        <v>8.409356716082126</v>
+        <v>8.084653660094244</v>
       </c>
       <c r="K13">
-        <v>12.62229180211465</v>
+        <v>12.10341671620097</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.401517689007</v>
       </c>
       <c r="M13">
-        <v>13.64554596768492</v>
+        <v>7.712475198845182</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.06389896078779</v>
+        <v>13.54055510885054</v>
       </c>
       <c r="P13">
-        <v>11.77616248717369</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.7068334354574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.02664135560842</v>
+      </c>
+      <c r="R13">
+        <v>11.81625450520363</v>
+      </c>
+      <c r="S13">
+        <v>13.14813716437267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.96234302574598</v>
+        <v>14.61724344433751</v>
       </c>
       <c r="C14">
-        <v>9.563699697388619</v>
+        <v>9.818404374558073</v>
       </c>
       <c r="D14">
-        <v>9.108817175399961</v>
+        <v>9.105307195426809</v>
       </c>
       <c r="E14">
-        <v>6.823627767370533</v>
+        <v>6.767032144602133</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>20.51851789801827</v>
+        <v>20.84069974015775</v>
       </c>
       <c r="H14">
-        <v>6.51173332159378</v>
+        <v>6.50618035236372</v>
       </c>
       <c r="I14">
-        <v>3.129476904149352</v>
+        <v>3.125022467577307</v>
       </c>
       <c r="J14">
-        <v>8.282792775252958</v>
+        <v>8.100731030088621</v>
       </c>
       <c r="K14">
-        <v>12.41531436094234</v>
+        <v>11.9576505202531</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.32771224991341</v>
       </c>
       <c r="M14">
-        <v>13.54195479937911</v>
+        <v>7.536863159854102</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.663195677854244</v>
+        <v>13.4506313071389</v>
       </c>
       <c r="P14">
-        <v>11.82250935431385</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.3655533976467</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.633788626654365</v>
+      </c>
+      <c r="R14">
+        <v>11.86722636014934</v>
+      </c>
+      <c r="S14">
+        <v>12.87878664349254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.88766204948362</v>
+        <v>14.55660387914363</v>
       </c>
       <c r="C15">
-        <v>9.518209869155649</v>
+        <v>9.769147762003367</v>
       </c>
       <c r="D15">
-        <v>9.057687957873156</v>
+        <v>9.05444579502336</v>
       </c>
       <c r="E15">
-        <v>6.656479064054794</v>
+        <v>6.599263846044309</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>20.27489696562256</v>
+        <v>20.42586949919979</v>
       </c>
       <c r="H15">
-        <v>6.724198294283113</v>
+        <v>6.719307415501017</v>
       </c>
       <c r="I15">
-        <v>3.114189107635097</v>
+        <v>3.112898949709421</v>
       </c>
       <c r="J15">
-        <v>8.252967735906365</v>
+        <v>8.137221428098327</v>
       </c>
       <c r="K15">
-        <v>12.36854864658244</v>
+        <v>11.93308791277916</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.32131517231948</v>
       </c>
       <c r="M15">
-        <v>13.47879240116232</v>
+        <v>7.491727505528428</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.302512254668148</v>
+        <v>13.39526631523649</v>
       </c>
       <c r="P15">
-        <v>11.84389887614052</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.27696033287381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.277101430933701</v>
+      </c>
+      <c r="R15">
+        <v>11.88711004753547</v>
+      </c>
+      <c r="S15">
+        <v>12.82050982462723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.43005846469116</v>
+        <v>14.14882922714439</v>
       </c>
       <c r="C16">
-        <v>9.292205790095597</v>
+        <v>9.553569341414718</v>
       </c>
       <c r="D16">
-        <v>8.761436846286413</v>
+        <v>8.759440684863851</v>
       </c>
       <c r="E16">
-        <v>6.660089570820536</v>
+        <v>6.620415181018148</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>20.10754552903927</v>
+        <v>19.44334672155488</v>
       </c>
       <c r="H16">
-        <v>6.461540628391386</v>
+        <v>6.458675805628124</v>
       </c>
       <c r="I16">
-        <v>3.03184964418658</v>
+        <v>3.043858331056425</v>
       </c>
       <c r="J16">
-        <v>8.284307452750252</v>
+        <v>8.446838937038727</v>
       </c>
       <c r="K16">
-        <v>12.44915411830825</v>
+        <v>12.07262730140815</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.45723972291879</v>
       </c>
       <c r="M16">
-        <v>13.11247176851323</v>
+        <v>7.504376926979941</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.166403794597493</v>
+        <v>13.06637875715259</v>
       </c>
       <c r="P16">
-        <v>11.92770267556866</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.28194600407912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.158197807780621</v>
+      </c>
+      <c r="R16">
+        <v>11.94918164356658</v>
+      </c>
+      <c r="S16">
+        <v>12.93124464536618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.12337790124708</v>
+        <v>13.85871231265536</v>
       </c>
       <c r="C17">
-        <v>9.181973796820033</v>
+        <v>9.457173854067964</v>
       </c>
       <c r="D17">
-        <v>8.57584375633968</v>
+        <v>8.574440615834417</v>
       </c>
       <c r="E17">
-        <v>7.180896978702384</v>
+        <v>7.152706073827218</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>20.45000792944093</v>
+        <v>19.43198618348541</v>
       </c>
       <c r="H17">
-        <v>5.718511411246082</v>
+        <v>5.716417499748876</v>
       </c>
       <c r="I17">
-        <v>2.986385803431647</v>
+        <v>3.005358720717286</v>
       </c>
       <c r="J17">
-        <v>8.375875769366175</v>
+        <v>8.655380420019837</v>
       </c>
       <c r="K17">
-        <v>12.61989988910163</v>
+        <v>12.25230343170929</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.60511728415317</v>
       </c>
       <c r="M17">
-        <v>12.88315244401342</v>
+        <v>7.599552525450054</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.832160537498885</v>
+        <v>12.85374110317552</v>
       </c>
       <c r="P17">
-        <v>11.96846620708212</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.4689033405603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.831141584760903</v>
+      </c>
+      <c r="R17">
+        <v>11.97490997799727</v>
+      </c>
+      <c r="S17">
+        <v>13.15070027596118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.93006335299493</v>
+        <v>13.6589446858731</v>
       </c>
       <c r="C18">
-        <v>9.145638983843723</v>
+        <v>9.449328986014956</v>
       </c>
       <c r="D18">
-        <v>8.468550437543739</v>
+        <v>8.467353552906189</v>
       </c>
       <c r="E18">
-        <v>9.077098705074588</v>
+        <v>9.056122283076114</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>21.28906759635953</v>
+        <v>20.09470542428207</v>
       </c>
       <c r="H18">
-        <v>4.520401316239824</v>
+        <v>4.5181865125996</v>
       </c>
       <c r="I18">
-        <v>2.965861626806978</v>
+        <v>2.986336973765303</v>
       </c>
       <c r="J18">
-        <v>8.532570468842472</v>
+        <v>8.850025673933645</v>
       </c>
       <c r="K18">
-        <v>12.89930720560583</v>
+        <v>12.50877505720029</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.79733092256985</v>
       </c>
       <c r="M18">
-        <v>12.75135412231642</v>
+        <v>7.788044863099362</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.29057114062984</v>
+        <v>12.72890668027275</v>
       </c>
       <c r="P18">
-        <v>11.98303905136834</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.84141061885799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.29207973990828</v>
+      </c>
+      <c r="R18">
+        <v>11.97565291880654</v>
+      </c>
+      <c r="S18">
+        <v>13.51532605795144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.82233830594661</v>
+        <v>13.52883067517805</v>
       </c>
       <c r="C19">
-        <v>9.211856101069523</v>
+        <v>9.560360774883975</v>
       </c>
       <c r="D19">
-        <v>8.433682158461751</v>
+        <v>8.432403164278844</v>
       </c>
       <c r="E19">
-        <v>12.45367235612481</v>
+        <v>12.43622464793109</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.39850066240327</v>
+        <v>21.11096438595144</v>
       </c>
       <c r="H19">
-        <v>3.211704703317233</v>
+        <v>3.208055481262948</v>
       </c>
       <c r="I19">
-        <v>2.977637333169137</v>
+        <v>2.997529815681473</v>
       </c>
       <c r="J19">
-        <v>8.720596315625304</v>
+        <v>9.032997430686315</v>
       </c>
       <c r="K19">
-        <v>13.22544889253333</v>
+        <v>12.7927803262209</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.00068159227245</v>
       </c>
       <c r="M19">
-        <v>12.71049470912499</v>
+        <v>8.021713468133838</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.28131410158841</v>
+        <v>12.68940132232583</v>
       </c>
       <c r="P19">
-        <v>11.98540641208344</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.310898792679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.28271904832818</v>
+      </c>
+      <c r="R19">
+        <v>11.96448303580669</v>
+      </c>
+      <c r="S19">
+        <v>13.9528490358885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.00586772506849</v>
+        <v>13.64833317304122</v>
       </c>
       <c r="C20">
-        <v>9.491197654651987</v>
+        <v>9.924551835568028</v>
       </c>
       <c r="D20">
-        <v>8.604193269851807</v>
+        <v>8.602030851459071</v>
       </c>
       <c r="E20">
-        <v>18.42032159686899</v>
+        <v>18.40425194907535</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.30432613662563</v>
+        <v>23.13922348318224</v>
       </c>
       <c r="H20">
-        <v>2.394097329172306</v>
+        <v>2.383290800652581</v>
       </c>
       <c r="I20">
-        <v>3.064365417460357</v>
+        <v>3.073658634143145</v>
       </c>
       <c r="J20">
-        <v>9.006857348850318</v>
+        <v>9.184571199231161</v>
       </c>
       <c r="K20">
-        <v>13.71427129633695</v>
+        <v>13.18116716691315</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.23390998417626</v>
       </c>
       <c r="M20">
-        <v>12.92702717679836</v>
+        <v>8.425398165776258</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.55699900507348</v>
+        <v>12.89318294973617</v>
       </c>
       <c r="P20">
-        <v>11.94345358650336</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.07552237501192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.55105636486379</v>
+      </c>
+      <c r="R20">
+        <v>11.90481273227919</v>
+      </c>
+      <c r="S20">
+        <v>14.61807417550988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.81203566417242</v>
+        <v>14.34786056071924</v>
       </c>
       <c r="C21">
-        <v>9.953752769626872</v>
+        <v>10.37536695226939</v>
       </c>
       <c r="D21">
-        <v>9.143781817140873</v>
+        <v>9.139078013416759</v>
       </c>
       <c r="E21">
-        <v>19.84276299764285</v>
+        <v>19.84066022582407</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.17654354295754</v>
+        <v>25.71428339944383</v>
       </c>
       <c r="H21">
-        <v>2.643504846616985</v>
+        <v>2.619390905543339</v>
       </c>
       <c r="I21">
-        <v>3.227507181353407</v>
+        <v>3.211029161552423</v>
       </c>
       <c r="J21">
-        <v>9.060107195099278</v>
+        <v>8.502450323142758</v>
       </c>
       <c r="K21">
-        <v>13.76044068481161</v>
+        <v>13.05146033729043</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.01378453715022</v>
       </c>
       <c r="M21">
-        <v>13.59491386316779</v>
+        <v>8.561957735185016</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.67351101917615</v>
+        <v>13.4857951183284</v>
       </c>
       <c r="P21">
-        <v>11.77123602807906</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.3333333990173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.62958445391433</v>
+      </c>
+      <c r="R21">
+        <v>11.74137922198933</v>
+      </c>
+      <c r="S21">
+        <v>14.61729098283722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.33181432791595</v>
+        <v>14.80018744331629</v>
       </c>
       <c r="C22">
-        <v>10.21825172740809</v>
+        <v>10.6220760407687</v>
       </c>
       <c r="D22">
-        <v>9.481828486586334</v>
+        <v>9.475366869335641</v>
       </c>
       <c r="E22">
-        <v>20.46926160291028</v>
+        <v>20.47807056995716</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.70415794718956</v>
+        <v>27.46396065525753</v>
       </c>
       <c r="H22">
-        <v>2.791976185788551</v>
+        <v>2.759437566956332</v>
       </c>
       <c r="I22">
-        <v>3.326717134613929</v>
+        <v>3.292667784969252</v>
       </c>
       <c r="J22">
-        <v>9.091059029424544</v>
+        <v>8.07632674317264</v>
       </c>
       <c r="K22">
-        <v>13.78911293695476</v>
+        <v>12.95722121912963</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.86704334236707</v>
       </c>
       <c r="M22">
-        <v>14.01380507513085</v>
+        <v>8.651481791270053</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.23745182569611</v>
+        <v>13.85373167506005</v>
       </c>
       <c r="P22">
-        <v>11.65940880823972</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.48908169634534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.16774752307348</v>
+      </c>
+      <c r="R22">
+        <v>11.63713593105581</v>
+      </c>
+      <c r="S22">
+        <v>14.59243292107627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.07037094371566</v>
+        <v>14.57956945213745</v>
       </c>
       <c r="C23">
-        <v>10.05572208386156</v>
+        <v>10.48036547776509</v>
       </c>
       <c r="D23">
-        <v>9.302797349713702</v>
+        <v>9.297383519470797</v>
       </c>
       <c r="E23">
-        <v>20.13787052179552</v>
+        <v>20.13802134385</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.45860893003348</v>
+        <v>26.36412517684302</v>
       </c>
       <c r="H23">
-        <v>2.713471166905838</v>
+        <v>2.685948416012186</v>
       </c>
       <c r="I23">
-        <v>3.270314546224852</v>
+        <v>3.245024534428983</v>
       </c>
       <c r="J23">
-        <v>9.080675154721524</v>
+        <v>8.370394205767402</v>
       </c>
       <c r="K23">
-        <v>13.79072477052498</v>
+        <v>13.03692659583234</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.96359994411539</v>
       </c>
       <c r="M23">
-        <v>13.7919606147189</v>
+        <v>8.629734979218108</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.93866505004627</v>
+        <v>13.66651554419276</v>
       </c>
       <c r="P23">
-        <v>11.7199142843865</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.4213000145808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.88644777818513</v>
+      </c>
+      <c r="R23">
+        <v>11.69284064201204</v>
+      </c>
+      <c r="S23">
+        <v>14.64342866031701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.01006650307617</v>
+        <v>13.65081274790998</v>
       </c>
       <c r="C24">
-        <v>9.458416951606017</v>
+        <v>9.89394774326788</v>
       </c>
       <c r="D24">
-        <v>8.595607297086476</v>
+        <v>8.593442365666606</v>
       </c>
       <c r="E24">
-        <v>18.8314058255</v>
+        <v>18.81532573808008</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.47387241309379</v>
+        <v>23.28913734619281</v>
       </c>
       <c r="H24">
-        <v>2.40878933246976</v>
+        <v>2.397922600319711</v>
       </c>
       <c r="I24">
-        <v>3.058528317008364</v>
+        <v>3.065669367847207</v>
       </c>
       <c r="J24">
-        <v>9.037098011324957</v>
+        <v>9.218182834004244</v>
       </c>
       <c r="K24">
-        <v>13.77795186859957</v>
+        <v>13.2397288211534</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.2766028189938</v>
       </c>
       <c r="M24">
-        <v>12.91711365776459</v>
+        <v>8.472228011827516</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.76142215898187</v>
+        <v>12.88382174926342</v>
       </c>
       <c r="P24">
-        <v>11.94956485691187</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.1495825900335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.75569561669886</v>
+      </c>
+      <c r="R24">
+        <v>11.90815942595162</v>
+      </c>
+      <c r="S24">
+        <v>14.68982318962874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.76292825786958</v>
+        <v>12.49549065845459</v>
       </c>
       <c r="C25">
-        <v>8.777760542553969</v>
+        <v>9.073044413003339</v>
       </c>
       <c r="D25">
-        <v>7.769861806402137</v>
+        <v>7.769616173978894</v>
       </c>
       <c r="E25">
-        <v>17.31548950740432</v>
+        <v>17.3128319703967</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.42318122844752</v>
+        <v>22.20375003137495</v>
       </c>
       <c r="H25">
-        <v>2.065349128951409</v>
+        <v>2.0657626141446</v>
       </c>
       <c r="I25">
-        <v>2.822646099895708</v>
+        <v>2.856527619901972</v>
       </c>
       <c r="J25">
-        <v>9.002816541550848</v>
+        <v>9.255410217934445</v>
       </c>
       <c r="K25">
-        <v>13.78338355677843</v>
+        <v>13.32334680743426</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.52917122943894</v>
       </c>
       <c r="M25">
-        <v>11.90060595639872</v>
+        <v>8.231576345144223</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.39564835540704</v>
+        <v>11.88267170737703</v>
       </c>
       <c r="P25">
-        <v>12.20179587622815</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.87915651901778</v>
+        <v>15.39815899020996</v>
+      </c>
+      <c r="R25">
+        <v>12.14393925941592</v>
+      </c>
+      <c r="S25">
+        <v>14.51058982419057</v>
       </c>
     </row>
   </sheetData>
